--- a/outdata/use_reg2014.xlsx
+++ b/outdata/use_reg2014.xlsx
@@ -71370,4 +71370,196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101001B5D64AB0C21E743B0946431DB85BECD" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="e8891e6613dc1e274f3bfe40586e2186">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d070ba9-5dd2-4ec6-9127-c85124792d21" xmlns:ns3="f6d38416-0c3a-40f5-a98e-64d30975dddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a6f819ee994c46a24c3d62cafa1a62" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
+    <xsd:import namespace="f6d38416-0c3a-40f5-a98e-64d30975dddf"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d070ba9-5dd2-4ec6-9127-c85124792d21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f6d38416-0c3a-40f5-a98e-64d30975dddf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Jaettu" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Jakamisen tiedot" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B30718-975F-4499-8E52-D0F654E57512}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AC3A20-4B2D-470D-A41D-0C5A16BBE958}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C18573A-D236-44E3-9864-BE00CA21E988}"/>
 </file>
--- a/outdata/use_reg2014.xlsx
+++ b/outdata/use_reg2014.xlsx
@@ -71553,13 +71553,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B30718-975F-4499-8E52-D0F654E57512}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B8D55D0-883E-4E37-AA46-77B3B22547B7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AC3A20-4B2D-470D-A41D-0C5A16BBE958}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B462CB8D-2978-4327-A7B8-4C60AF03E0DF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C18573A-D236-44E3-9864-BE00CA21E988}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C31B234-FCF3-4CB3-8408-46F8B83861AD}"/>
 </file>
--- a/outdata/use_reg2014.xlsx
+++ b/outdata/use_reg2014.xlsx
@@ -6333,115 +6333,115 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.8803260326385498</v>
+        <v>0.8803261518478394</v>
       </c>
       <c r="C19" s="1">
-        <v>1.358143091201782</v>
+        <v>1.358143329620361</v>
       </c>
       <c r="D19" s="1">
-        <v>4.200687885284424</v>
+        <v>4.200688362121582</v>
       </c>
       <c r="E19" s="1">
-        <v>12.82174301147461</v>
+        <v>12.82174491882324</v>
       </c>
       <c r="F19" s="1">
-        <v>1.803784370422363</v>
+        <v>1.803784847259521</v>
       </c>
       <c r="G19" s="1">
-        <v>18.53339004516602</v>
+        <v>18.53339195251465</v>
       </c>
       <c r="H19" s="1">
-        <v>19.23024940490723</v>
+        <v>19.23025321960449</v>
       </c>
       <c r="I19" s="1">
-        <v>5.842401504516602</v>
+        <v>5.842402458190918</v>
       </c>
       <c r="J19" s="1">
-        <v>2.485117197036743</v>
+        <v>2.485117673873901</v>
       </c>
       <c r="K19" s="1">
-        <v>2.918412685394287</v>
+        <v>2.918413162231445</v>
       </c>
       <c r="L19" s="1">
-        <v>0.8153148889541626</v>
+        <v>0.8153150081634521</v>
       </c>
       <c r="M19" s="1">
-        <v>8.569660186767578</v>
+        <v>8.569662094116211</v>
       </c>
       <c r="N19" s="1">
-        <v>0.4468857645988464</v>
+        <v>0.4468858242034912</v>
       </c>
       <c r="O19" s="1">
-        <v>1.119108200073242</v>
+        <v>1.119108319282532</v>
       </c>
       <c r="P19" s="1">
         <v>2.608101844787598</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.016412734985352</v>
+        <v>6.016413688659668</v>
       </c>
       <c r="R19" s="1">
-        <v>26.27576446533203</v>
+        <v>26.2757682800293</v>
       </c>
       <c r="S19" s="1">
-        <v>40.01901245117188</v>
+        <v>40.01901626586914</v>
       </c>
       <c r="T19" s="1">
-        <v>1.055423736572266</v>
+        <v>1.055423855781555</v>
       </c>
       <c r="U19" s="1">
-        <v>2.793797016143799</v>
+        <v>2.793797492980957</v>
       </c>
       <c r="V19" s="1">
-        <v>2.382912635803223</v>
+        <v>2.382912874221802</v>
       </c>
       <c r="W19" s="1">
-        <v>0.992483377456665</v>
+        <v>0.9924836158752441</v>
       </c>
       <c r="X19" s="1">
-        <v>0.177184134721756</v>
+        <v>0.1771841645240784</v>
       </c>
       <c r="Y19" s="1">
-        <v>2.501620769500732</v>
+        <v>2.501621246337891</v>
       </c>
       <c r="Z19" s="1">
-        <v>3.827538967132568</v>
+        <v>3.827539443969727</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.88357734680176</v>
+        <v>17.88357925415039</v>
       </c>
       <c r="AB19" s="1">
-        <v>5.819403648376465</v>
+        <v>5.819404602050781</v>
       </c>
       <c r="AC19" s="1">
-        <v>12.56762504577637</v>
+        <v>12.567626953125</v>
       </c>
       <c r="AD19" s="1">
-        <v>6.037945747375488</v>
+        <v>6.037946701049805</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>211.9840393066406</v>
+        <v>211.9840545654297</v>
       </c>
       <c r="AG19" s="1">
-        <v>43.68037414550781</v>
+        <v>43.68038177490234</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.7641407251358032</v>
+        <v>0.7641408443450928</v>
       </c>
       <c r="AI19" s="1">
         <v>1.275762557983398</v>
       </c>
       <c r="AJ19" s="1">
-        <v>19.85556793212891</v>
+        <v>19.85557174682617</v>
       </c>
       <c r="AK19" s="1">
-        <v>65.57584536075592</v>
+        <v>65.57585692405701</v>
       </c>
       <c r="AL19" s="1">
-        <v>277.5598846673965</v>
+        <v>277.5599114894867</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -7841,115 +7841,115 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>63.50415254058316</v>
+        <v>63.50415265979245</v>
       </c>
       <c r="C32" s="1">
-        <v>30.13506490248255</v>
+        <v>30.13506514090113</v>
       </c>
       <c r="D32" s="1">
-        <v>17.63440245983656</v>
+        <v>17.63440293667372</v>
       </c>
       <c r="E32" s="1">
-        <v>129.0640773642808</v>
+        <v>129.0640792716295</v>
       </c>
       <c r="F32" s="1">
-        <v>19.14555688516703</v>
+        <v>19.14555736200418</v>
       </c>
       <c r="G32" s="1">
-        <v>102.4517386574298</v>
+        <v>102.4517405647784</v>
       </c>
       <c r="H32" s="1">
-        <v>70.28134260699153</v>
+        <v>70.2813464216888</v>
       </c>
       <c r="I32" s="1">
-        <v>78.82091634426615</v>
+        <v>78.82091729794047</v>
       </c>
       <c r="J32" s="1">
-        <v>17.08368930686265</v>
+        <v>17.08368978369981</v>
       </c>
       <c r="K32" s="1">
-        <v>51.08905556763057</v>
+        <v>51.08905604446772</v>
       </c>
       <c r="L32" s="1">
-        <v>15.63158400080283</v>
+        <v>15.63158412001212</v>
       </c>
       <c r="M32" s="1">
-        <v>116.3102644254686</v>
+        <v>116.3102663328173</v>
       </c>
       <c r="N32" s="1">
-        <v>12.57257528240734</v>
+        <v>12.57257534201199</v>
       </c>
       <c r="O32" s="1">
-        <v>23.33544525195612</v>
+        <v>23.33544537116541</v>
       </c>
       <c r="P32" s="1">
         <v>40.93650900086504</v>
       </c>
       <c r="Q32" s="1">
-        <v>165.5000114692375</v>
+        <v>165.5000124229118</v>
       </c>
       <c r="R32" s="1">
-        <v>125.259148682002</v>
+        <v>125.2591524966992</v>
       </c>
       <c r="S32" s="1">
-        <v>103.6504907532412</v>
+        <v>103.6504945679385</v>
       </c>
       <c r="T32" s="1">
-        <v>33.23049008025555</v>
+        <v>33.23049019946484</v>
       </c>
       <c r="U32" s="1">
-        <v>56.4109507817775</v>
+        <v>56.41095125861466</v>
       </c>
       <c r="V32" s="1">
-        <v>56.5601158477366</v>
+        <v>56.56011608615518</v>
       </c>
       <c r="W32" s="1">
-        <v>47.24752155644819</v>
+        <v>47.24752179486677</v>
       </c>
       <c r="X32" s="1">
-        <v>38.02689981914591</v>
+        <v>38.02689984894823</v>
       </c>
       <c r="Y32" s="1">
-        <v>39.28647823404663</v>
+        <v>39.28647871088378</v>
       </c>
       <c r="Z32" s="1">
-        <v>36.33371722418815</v>
+        <v>36.33371770102531</v>
       </c>
       <c r="AA32" s="1">
-        <v>113.9544935124286</v>
+        <v>113.9544954197772</v>
       </c>
       <c r="AB32" s="1">
-        <v>41.38955461577279</v>
+        <v>41.38955556944711</v>
       </c>
       <c r="AC32" s="1">
-        <v>99.43455966947522</v>
+        <v>99.43456157682385</v>
       </c>
       <c r="AD32" s="1">
-        <v>45.95691406833794</v>
+        <v>45.95691502201225</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1790.237752646208</v>
+        <v>1790.237767904997</v>
       </c>
       <c r="AG32" s="1">
-        <v>902.1219528913498</v>
+        <v>902.1219605207443</v>
       </c>
       <c r="AH32" s="1">
-        <v>279.8507610559464</v>
+        <v>279.8507611751556</v>
       </c>
       <c r="AI32" s="1">
         <v>240.8044924587011</v>
       </c>
       <c r="AJ32" s="1">
-        <v>475.4871004372835</v>
+        <v>475.4871042519808</v>
       </c>
       <c r="AK32" s="1">
-        <v>1898.264306843281</v>
+        <v>1898.264318406582</v>
       </c>
       <c r="AL32" s="1">
-        <v>3688.502059489489</v>
+        <v>3688.502086311579</v>
       </c>
     </row>
   </sheetData>
@@ -9963,7 +9963,7 @@
         <v>15.2249927520752</v>
       </c>
       <c r="I18" s="1">
-        <v>6.963090419769287</v>
+        <v>6.963090896606445</v>
       </c>
       <c r="J18" s="1">
         <v>2.092032432556152</v>
@@ -10067,7 +10067,7 @@
         <v>5.366523742675781</v>
       </c>
       <c r="E19" s="1">
-        <v>10.7185754776001</v>
+        <v>10.71857452392578</v>
       </c>
       <c r="F19" s="1">
         <v>0.6399030685424805</v>
@@ -10076,97 +10076,97 @@
         <v>21.54556274414062</v>
       </c>
       <c r="H19" s="1">
-        <v>36.69435119628906</v>
+        <v>36.6943473815918</v>
       </c>
       <c r="I19" s="1">
-        <v>3.514147043228149</v>
+        <v>3.51414680480957</v>
       </c>
       <c r="J19" s="1">
-        <v>2.750613212585449</v>
+        <v>2.75061297416687</v>
       </c>
       <c r="K19" s="1">
-        <v>3.176663398742676</v>
+        <v>3.176663160324097</v>
       </c>
       <c r="L19" s="1">
         <v>1.279802560806274</v>
       </c>
       <c r="M19" s="1">
-        <v>9.948786735534668</v>
+        <v>9.948785781860352</v>
       </c>
       <c r="N19" s="1">
-        <v>0.09772297739982605</v>
+        <v>0.09772296994924545</v>
       </c>
       <c r="O19" s="1">
-        <v>1.081067204475403</v>
+        <v>1.081067085266113</v>
       </c>
       <c r="P19" s="1">
-        <v>4.065771102905273</v>
+        <v>4.065770626068115</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.612565040588379</v>
+        <v>5.612564563751221</v>
       </c>
       <c r="R19" s="1">
-        <v>17.23418426513672</v>
+        <v>17.23418235778809</v>
       </c>
       <c r="S19" s="1">
-        <v>28.92317771911621</v>
+        <v>28.92317581176758</v>
       </c>
       <c r="T19" s="1">
         <v>0.7954515814781189</v>
       </c>
       <c r="U19" s="1">
-        <v>2.603850841522217</v>
+        <v>2.603850364685059</v>
       </c>
       <c r="V19" s="1">
-        <v>1.549673914909363</v>
+        <v>1.549673795700073</v>
       </c>
       <c r="W19" s="1">
-        <v>0.8929623961448669</v>
+        <v>0.8929623365402222</v>
       </c>
       <c r="X19" s="1">
-        <v>0.1690806001424789</v>
+        <v>0.1690805852413177</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.68430495262146</v>
+        <v>1.68430483341217</v>
       </c>
       <c r="Z19" s="1">
-        <v>2.21454381942749</v>
+        <v>2.214543581008911</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.09941864013672</v>
+        <v>16.09941673278809</v>
       </c>
       <c r="AB19" s="1">
-        <v>6.469361782073975</v>
+        <v>6.469361305236816</v>
       </c>
       <c r="AC19" s="1">
-        <v>12.2276668548584</v>
+        <v>12.22766494750977</v>
       </c>
       <c r="AD19" s="1">
-        <v>7.073050498962402</v>
+        <v>7.073050022125244</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>206.7798614501953</v>
+        <v>206.7798461914062</v>
       </c>
       <c r="AG19" s="1">
-        <v>41.65139389038086</v>
+        <v>41.65139007568359</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.693087637424469</v>
+        <v>0.6930876970291138</v>
       </c>
       <c r="AI19" s="1">
         <v>1.259385585784912</v>
       </c>
       <c r="AJ19" s="1">
-        <v>21.63303375244141</v>
+        <v>21.63302993774414</v>
       </c>
       <c r="AK19" s="1">
-        <v>65.23690086603165</v>
+        <v>65.23689329624176</v>
       </c>
       <c r="AL19" s="1">
-        <v>272.016762316227</v>
+        <v>272.016739487648</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -11575,7 +11575,7 @@
         <v>18.35637035674881</v>
       </c>
       <c r="E32" s="1">
-        <v>83.97924369201064</v>
+        <v>83.97924273833632</v>
       </c>
       <c r="F32" s="1">
         <v>6.244269880553475</v>
@@ -11584,97 +11584,97 @@
         <v>92.75343751907349</v>
       </c>
       <c r="H32" s="1">
-        <v>102.0509765464813</v>
+        <v>102.050972731784</v>
       </c>
       <c r="I32" s="1">
-        <v>39.42355211502581</v>
+        <v>39.42355235344439</v>
       </c>
       <c r="J32" s="1">
-        <v>13.94882535259239</v>
+        <v>13.94882511417381</v>
       </c>
       <c r="K32" s="1">
-        <v>36.04673860326875</v>
+        <v>36.04673836485017</v>
       </c>
       <c r="L32" s="1">
         <v>19.95514401607215</v>
       </c>
       <c r="M32" s="1">
-        <v>104.1186909128446</v>
+        <v>104.1186899591703</v>
       </c>
       <c r="N32" s="1">
-        <v>2.262504433314461</v>
+        <v>2.262504425863881</v>
       </c>
       <c r="O32" s="1">
-        <v>18.35084462052328</v>
+        <v>18.35084450131399</v>
       </c>
       <c r="P32" s="1">
-        <v>48.82886301256804</v>
+        <v>48.82886253573088</v>
       </c>
       <c r="Q32" s="1">
-        <v>116.4469868619926</v>
+        <v>116.4469863851555</v>
       </c>
       <c r="R32" s="1">
-        <v>70.06145997100975</v>
+        <v>70.06145806366112</v>
       </c>
       <c r="S32" s="1">
-        <v>67.9159337510448</v>
+        <v>67.91593184369617</v>
       </c>
       <c r="T32" s="1">
         <v>19.14443417648727</v>
       </c>
       <c r="U32" s="1">
-        <v>40.04390724748373</v>
+        <v>40.04390677064657</v>
       </c>
       <c r="V32" s="1">
-        <v>30.86923162732273</v>
+        <v>30.86923150811344</v>
       </c>
       <c r="W32" s="1">
-        <v>31.39845508470898</v>
+        <v>31.39845502510434</v>
       </c>
       <c r="X32" s="1">
-        <v>29.25815630095894</v>
+        <v>29.25815628605778</v>
       </c>
       <c r="Y32" s="1">
-        <v>23.41666061725937</v>
+        <v>23.41666049805008</v>
       </c>
       <c r="Z32" s="1">
-        <v>18.08063399471575</v>
+        <v>18.08063375629717</v>
       </c>
       <c r="AA32" s="1">
-        <v>83.25355503486935</v>
+        <v>83.25355312752072</v>
       </c>
       <c r="AB32" s="1">
-        <v>36.7083429027407</v>
+        <v>36.70834242590354</v>
       </c>
       <c r="AC32" s="1">
-        <v>81.64242880987604</v>
+        <v>81.6424269025274</v>
       </c>
       <c r="AD32" s="1">
-        <v>42.46616755880677</v>
+        <v>42.46616708196962</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1346.566878587008</v>
+        <v>1346.566863328218</v>
       </c>
       <c r="AG32" s="1">
-        <v>670.3921785354614</v>
+        <v>670.3921747207642</v>
       </c>
       <c r="AH32" s="1">
-        <v>201.3788024671376</v>
+        <v>201.3788025267422</v>
       </c>
       <c r="AI32" s="1">
         <v>222.7580732814968</v>
       </c>
       <c r="AJ32" s="1">
-        <v>393.1025729440153</v>
+        <v>393.102569129318</v>
       </c>
       <c r="AK32" s="1">
-        <v>1487.631627228111</v>
+        <v>1487.631619658321</v>
       </c>
       <c r="AL32" s="1">
-        <v>2834.198505815119</v>
+        <v>2834.19848298654</v>
       </c>
     </row>
   </sheetData>
@@ -12198,7 +12198,7 @@
         <v>0.0001886628597276285</v>
       </c>
       <c r="O5" s="1">
-        <v>0.001002770615741611</v>
+        <v>0.001002770382910967</v>
       </c>
       <c r="P5" s="1">
         <v>0.4783422946929932</v>
@@ -12210,7 +12210,7 @@
         <v>0.245239183306694</v>
       </c>
       <c r="S5" s="1">
-        <v>0.8532074093818665</v>
+        <v>0.8532072901725769</v>
       </c>
       <c r="T5" s="1">
         <v>16.30409622192383</v>
@@ -12219,7 +12219,7 @@
         <v>1.012628793716431</v>
       </c>
       <c r="V5" s="1">
-        <v>0.3007150292396545</v>
+        <v>0.3007149696350098</v>
       </c>
       <c r="W5" s="1">
         <v>1.092964053153992</v>
@@ -12240,7 +12240,7 @@
         <v>1.134070873260498</v>
       </c>
       <c r="AC5" s="1">
-        <v>2.588913202285767</v>
+        <v>2.588912725448608</v>
       </c>
       <c r="AD5" s="1">
         <v>1.316275596618652</v>
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>67.34698486328125</v>
+        <v>67.34697723388672</v>
       </c>
       <c r="AG5" s="1">
         <v>137.9207763671875</v>
@@ -12267,7 +12267,7 @@
         <v>153.5716543197632</v>
       </c>
       <c r="AL5" s="1">
-        <v>220.9186391830444</v>
+        <v>220.9186315536499</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -13727,7 +13727,7 @@
         <v>9.725625038146973</v>
       </c>
       <c r="V18" s="1">
-        <v>1.296319723129272</v>
+        <v>1.296319603919983</v>
       </c>
       <c r="W18" s="1">
         <v>2.9284508228302</v>
@@ -13807,7 +13807,7 @@
         <v>5.530422210693359</v>
       </c>
       <c r="J19" s="1">
-        <v>2.606693506240845</v>
+        <v>2.606693267822266</v>
       </c>
       <c r="K19" s="1">
         <v>4.608980178833008</v>
@@ -13825,7 +13825,7 @@
         <v>1.926054835319519</v>
       </c>
       <c r="P19" s="1">
-        <v>6.473758697509766</v>
+        <v>6.473757743835449</v>
       </c>
       <c r="Q19" s="1">
         <v>8.829898834228516</v>
@@ -13879,7 +13879,7 @@
         <v>69.07938385009766</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.9830977320671082</v>
+        <v>0.9830976128578186</v>
       </c>
       <c r="AI19" s="1">
         <v>2.016320705413818</v>
@@ -13888,10 +13888,10 @@
         <v>49.34918212890625</v>
       </c>
       <c r="AK19" s="1">
-        <v>121.4279844164848</v>
+        <v>121.4279842972755</v>
       </c>
       <c r="AL19" s="1">
-        <v>476.0792295336723</v>
+        <v>476.079229414463</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -15315,7 +15315,7 @@
         <v>65.98212084002444</v>
       </c>
       <c r="J32" s="1">
-        <v>14.35110381268896</v>
+        <v>14.35110357427038</v>
       </c>
       <c r="K32" s="1">
         <v>61.39838832389796</v>
@@ -15330,10 +15330,10 @@
         <v>19.22988025769882</v>
       </c>
       <c r="O32" s="1">
-        <v>26.61631317276624</v>
+        <v>26.61631317253341</v>
       </c>
       <c r="P32" s="1">
-        <v>66.81729242896108</v>
+        <v>66.81729147528677</v>
       </c>
       <c r="Q32" s="1">
         <v>174.3166344226338</v>
@@ -15342,7 +15342,7 @@
         <v>101.8991398615763</v>
       </c>
       <c r="S32" s="1">
-        <v>108.2577568488041</v>
+        <v>108.2577567295948</v>
       </c>
       <c r="T32" s="1">
         <v>46.91701994204777</v>
@@ -15351,7 +15351,7 @@
         <v>77.27101693302393</v>
       </c>
       <c r="V32" s="1">
-        <v>36.76019528880715</v>
+        <v>36.76019510999322</v>
       </c>
       <c r="W32" s="1">
         <v>44.7347096290323</v>
@@ -15372,7 +15372,7 @@
         <v>48.29560346796643</v>
       </c>
       <c r="AC32" s="1">
-        <v>114.4951996765078</v>
+        <v>114.4951991996707</v>
       </c>
       <c r="AD32" s="1">
         <v>48.47720267474506</v>
@@ -15381,13 +15381,13 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1976.579078450799</v>
+        <v>1976.579070821404</v>
       </c>
       <c r="AG32" s="1">
         <v>1076.940794587135</v>
       </c>
       <c r="AH32" s="1">
-        <v>140.9350222796202</v>
+        <v>140.9350221604109</v>
       </c>
       <c r="AI32" s="1">
         <v>353.3751611933112</v>
@@ -15396,10 +15396,10 @@
         <v>794.6406186372042</v>
       </c>
       <c r="AK32" s="1">
-        <v>2365.891596697271</v>
+        <v>2365.891596578062</v>
       </c>
       <c r="AL32" s="1">
-        <v>4342.47067514807</v>
+        <v>4342.470667399466</v>
       </c>
     </row>
   </sheetData>
@@ -21233,7 +21233,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.405303359031677</v>
+        <v>1.405303478240967</v>
       </c>
       <c r="C19" s="1">
         <v>0.7058283090591431</v>
@@ -21245,34 +21245,34 @@
         <v>13.88992500305176</v>
       </c>
       <c r="F19" s="1">
-        <v>0.531146228313446</v>
+        <v>0.5311462879180908</v>
       </c>
       <c r="G19" s="1">
-        <v>5.812995910644531</v>
+        <v>5.812995433807373</v>
       </c>
       <c r="H19" s="1">
-        <v>67.22959899902344</v>
+        <v>67.22959136962891</v>
       </c>
       <c r="I19" s="1">
-        <v>7.095242977142334</v>
+        <v>7.095242500305176</v>
       </c>
       <c r="J19" s="1">
         <v>5.691406726837158</v>
       </c>
       <c r="K19" s="1">
-        <v>7.340789794921875</v>
+        <v>7.340789318084717</v>
       </c>
       <c r="L19" s="1">
-        <v>16.51770782470703</v>
+        <v>16.5177059173584</v>
       </c>
       <c r="M19" s="1">
-        <v>35.43691253662109</v>
+        <v>35.43690872192383</v>
       </c>
       <c r="N19" s="1">
-        <v>2.490834951400757</v>
+        <v>2.490834712982178</v>
       </c>
       <c r="O19" s="1">
-        <v>2.865326166152954</v>
+        <v>2.865325927734375</v>
       </c>
       <c r="P19" s="1">
         <v>6.254549026489258</v>
@@ -21281,67 +21281,67 @@
         <v>7.140645027160645</v>
       </c>
       <c r="R19" s="1">
-        <v>21.02170372009277</v>
+        <v>21.02170181274414</v>
       </c>
       <c r="S19" s="1">
-        <v>53.00409317016602</v>
+        <v>53.00408935546875</v>
       </c>
       <c r="T19" s="1">
         <v>1.145062446594238</v>
       </c>
       <c r="U19" s="1">
-        <v>4.036642551422119</v>
+        <v>4.036642074584961</v>
       </c>
       <c r="V19" s="1">
         <v>2.46343469619751</v>
       </c>
       <c r="W19" s="1">
-        <v>1.100439190864563</v>
+        <v>1.100439071655273</v>
       </c>
       <c r="X19" s="1">
-        <v>0.2025430798530579</v>
+        <v>0.2025430649518967</v>
       </c>
       <c r="Y19" s="1">
-        <v>3.248780727386475</v>
+        <v>3.248780488967896</v>
       </c>
       <c r="Z19" s="1">
         <v>5.418010711669922</v>
       </c>
       <c r="AA19" s="1">
-        <v>12.54866695404053</v>
+        <v>12.54866600036621</v>
       </c>
       <c r="AB19" s="1">
-        <v>6.065168857574463</v>
+        <v>6.065168380737305</v>
       </c>
       <c r="AC19" s="1">
-        <v>12.98593235015869</v>
+        <v>12.98593139648438</v>
       </c>
       <c r="AD19" s="1">
-        <v>6.443713665008545</v>
+        <v>6.443713188171387</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>311.3778381347656</v>
+        <v>311.3778076171875</v>
       </c>
       <c r="AG19" s="1">
-        <v>48.93872451782227</v>
+        <v>48.93872833251953</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.08337938785553</v>
+        <v>1.083379507064819</v>
       </c>
       <c r="AI19" s="1">
-        <v>1.332866191864014</v>
+        <v>1.332866072654724</v>
       </c>
       <c r="AJ19" s="1">
-        <v>85.70873260498047</v>
+        <v>85.70872497558594</v>
       </c>
       <c r="AK19" s="1">
-        <v>137.0637027025223</v>
+        <v>137.063698887825</v>
       </c>
       <c r="AL19" s="1">
-        <v>448.4415408372879</v>
+        <v>448.4415065050125</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -22741,7 +22741,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>78.60386106953956</v>
+        <v>78.60386118874885</v>
       </c>
       <c r="C32" s="1">
         <v>18.20147385797463</v>
@@ -22753,34 +22753,34 @@
         <v>109.9613937176764</v>
       </c>
       <c r="F32" s="1">
-        <v>6.147640085197054</v>
+        <v>6.147640144801699</v>
       </c>
       <c r="G32" s="1">
-        <v>43.26307882461697</v>
+        <v>43.26307834777981</v>
       </c>
       <c r="H32" s="1">
-        <v>212.7869176380336</v>
+        <v>212.7869100086391</v>
       </c>
       <c r="I32" s="1">
-        <v>96.50884339606273</v>
+        <v>96.50884291922557</v>
       </c>
       <c r="J32" s="1">
         <v>29.86115588154644</v>
       </c>
       <c r="K32" s="1">
-        <v>110.1824658067198</v>
+        <v>110.1824653298827</v>
       </c>
       <c r="L32" s="1">
-        <v>219.3789592543617</v>
+        <v>219.3789573470131</v>
       </c>
       <c r="M32" s="1">
-        <v>358.9753039444331</v>
+        <v>358.9753001297358</v>
       </c>
       <c r="N32" s="1">
-        <v>47.35075932642212</v>
+        <v>47.35075908800354</v>
       </c>
       <c r="O32" s="1">
-        <v>42.34858445214923</v>
+        <v>42.34858421373065</v>
       </c>
       <c r="P32" s="1">
         <v>83.17601765724248</v>
@@ -22789,67 +22789,67 @@
         <v>182.1611857656389</v>
       </c>
       <c r="R32" s="1">
-        <v>80.45077687036246</v>
+        <v>80.45077496301383</v>
       </c>
       <c r="S32" s="1">
-        <v>122.8794481445266</v>
+        <v>122.8794443298293</v>
       </c>
       <c r="T32" s="1">
         <v>25.71476169388916</v>
       </c>
       <c r="U32" s="1">
-        <v>52.10066942218691</v>
+        <v>52.10066894534975</v>
       </c>
       <c r="V32" s="1">
         <v>43.10472968872637</v>
       </c>
       <c r="W32" s="1">
-        <v>34.77103433996672</v>
+        <v>34.77103422075743</v>
       </c>
       <c r="X32" s="1">
-        <v>33.66518037437345</v>
+        <v>33.66518035947229</v>
       </c>
       <c r="Y32" s="1">
-        <v>41.83814441213053</v>
+        <v>41.83814417371195</v>
       </c>
       <c r="Z32" s="1">
         <v>38.34132321341895</v>
       </c>
       <c r="AA32" s="1">
-        <v>58.26447620347608</v>
+        <v>58.26447524980176</v>
       </c>
       <c r="AB32" s="1">
-        <v>30.70671074427082</v>
+        <v>30.70671026743366</v>
       </c>
       <c r="AC32" s="1">
-        <v>78.05841550488503</v>
+        <v>78.05841455121072</v>
       </c>
       <c r="AD32" s="1">
-        <v>35.49290830915561</v>
+        <v>35.49290783231845</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>2319.102969765663</v>
+        <v>2319.102939248085</v>
       </c>
       <c r="AG32" s="1">
-        <v>795.0167744755745</v>
+        <v>795.0167782902718</v>
       </c>
       <c r="AH32" s="1">
-        <v>300.3756618872285</v>
+        <v>300.3756620064378</v>
       </c>
       <c r="AI32" s="1">
-        <v>330.3800148889422</v>
+        <v>330.380014769733</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1460.067395672202</v>
+        <v>1460.067388042808</v>
       </c>
       <c r="AK32" s="1">
-        <v>2885.839846923947</v>
+        <v>2885.83984310925</v>
       </c>
       <c r="AL32" s="1">
-        <v>5204.94281668961</v>
+        <v>5204.942782357335</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0.3682206869125366</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.1817418932914734</v>
+        <v>0.1817419230937958</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>3.974846839904785</v>
       </c>
       <c r="AD18" s="1">
-        <v>1.868289470672607</v>
+        <v>1.868289709091187</v>
       </c>
       <c r="AE18" s="1">
         <v>0</v>
@@ -24958,115 +24958,115 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.227347731590271</v>
+        <v>0.2273474931716919</v>
       </c>
       <c r="C19" s="1">
-        <v>0.1067051291465759</v>
+        <v>0.1067050397396088</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1759761571884155</v>
+        <v>0.175976037979126</v>
       </c>
       <c r="E19" s="1">
-        <v>1.475834369659424</v>
+        <v>1.475833415985107</v>
       </c>
       <c r="F19" s="1">
-        <v>0.228124737739563</v>
+        <v>0.2281246185302734</v>
       </c>
       <c r="G19" s="1">
-        <v>1.555333614349365</v>
+        <v>1.555332660675049</v>
       </c>
       <c r="H19" s="1">
-        <v>0.2354075908660889</v>
+        <v>0.2354074716567993</v>
       </c>
       <c r="I19" s="1">
-        <v>1.797112464904785</v>
+        <v>1.797111511230469</v>
       </c>
       <c r="J19" s="1">
-        <v>0.2995765209197998</v>
+        <v>0.2995762825012207</v>
       </c>
       <c r="K19" s="1">
-        <v>3.232821464538574</v>
+        <v>3.232818603515625</v>
       </c>
       <c r="L19" s="1">
-        <v>0.008346144109964371</v>
+        <v>0.008346136659383774</v>
       </c>
       <c r="M19" s="1">
-        <v>0.2745586633682251</v>
+        <v>0.274558424949646</v>
       </c>
       <c r="N19" s="1">
-        <v>0.1800572276115417</v>
+        <v>0.1800571084022522</v>
       </c>
       <c r="O19" s="1">
-        <v>0.2662292718887329</v>
+        <v>0.2662290334701538</v>
       </c>
       <c r="P19" s="1">
-        <v>0.4134224653244019</v>
+        <v>0.4134222269058228</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.7471117973327637</v>
+        <v>0.7471113204956055</v>
       </c>
       <c r="R19" s="1">
-        <v>4.433830261230469</v>
+        <v>4.433826446533203</v>
       </c>
       <c r="S19" s="1">
-        <v>12.97571563720703</v>
+        <v>12.97570419311523</v>
       </c>
       <c r="T19" s="1">
-        <v>0.1118350625038147</v>
+        <v>0.1118350028991699</v>
       </c>
       <c r="U19" s="1">
-        <v>0.4323725700378418</v>
+        <v>0.4323723316192627</v>
       </c>
       <c r="V19" s="1">
-        <v>0.2387402057647705</v>
+        <v>0.238740086555481</v>
       </c>
       <c r="W19" s="1">
-        <v>0.1396281719207764</v>
+        <v>0.1396281123161316</v>
       </c>
       <c r="X19" s="1">
-        <v>0.02412122488021851</v>
+        <v>0.02412120997905731</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.2469699382781982</v>
+        <v>0.2469696998596191</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.3569175004959106</v>
+        <v>0.3569172620773315</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.052615165710449</v>
+        <v>2.052613258361816</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.7333211898803711</v>
+        <v>0.7333207130432129</v>
       </c>
       <c r="AC19" s="1">
-        <v>1.59897518157959</v>
+        <v>1.598974227905273</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.7860062122344971</v>
+        <v>0.7860057353973389</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>35.35501861572266</v>
+        <v>35.3549919128418</v>
       </c>
       <c r="AG19" s="1">
-        <v>5.577728271484375</v>
+        <v>5.577724456787109</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.1451640129089355</v>
+        <v>0.145163893699646</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.1658521890640259</v>
+        <v>0.1658520698547363</v>
       </c>
       <c r="AJ19" s="1">
-        <v>13.9506721496582</v>
+        <v>13.95066452026367</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.83941662311554</v>
+        <v>19.83940494060516</v>
       </c>
       <c r="AL19" s="1">
-        <v>55.1944352388382</v>
+        <v>55.19439685344696</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -26466,115 +26466,115 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>40.70888857741375</v>
+        <v>40.70888833899517</v>
       </c>
       <c r="C32" s="1">
-        <v>6.248091952584218</v>
+        <v>6.248091863177251</v>
       </c>
       <c r="D32" s="1">
-        <v>2.177013063781487</v>
+        <v>2.177012944572198</v>
       </c>
       <c r="E32" s="1">
-        <v>39.79103812668473</v>
+        <v>39.79103717301041</v>
       </c>
       <c r="F32" s="1">
-        <v>6.622047322773142</v>
+        <v>6.622047203563852</v>
       </c>
       <c r="G32" s="1">
-        <v>23.7826010226272</v>
+        <v>23.78260006895289</v>
       </c>
       <c r="H32" s="1">
-        <v>2.882757951592794</v>
+        <v>2.882757832383504</v>
       </c>
       <c r="I32" s="1">
-        <v>66.35933637950802</v>
+        <v>66.35933542583371</v>
       </c>
       <c r="J32" s="1">
-        <v>5.393035605316982</v>
+        <v>5.393035366898403</v>
       </c>
       <c r="K32" s="1">
-        <v>114.0900550064398</v>
+        <v>114.0900521454168</v>
       </c>
       <c r="L32" s="1">
-        <v>0.512026379456529</v>
+        <v>0.5120263720059484</v>
       </c>
       <c r="M32" s="1">
-        <v>12.52273686167609</v>
+        <v>12.52273662325752</v>
       </c>
       <c r="N32" s="1">
-        <v>13.06396457267692</v>
+        <v>13.06396445346763</v>
       </c>
       <c r="O32" s="1">
-        <v>15.27240269734466</v>
+        <v>15.27240245892608</v>
       </c>
       <c r="P32" s="1">
-        <v>21.0956038518907</v>
+        <v>21.09560361347212</v>
       </c>
       <c r="Q32" s="1">
-        <v>59.9749900707975</v>
+        <v>59.97498959396034</v>
       </c>
       <c r="R32" s="1">
-        <v>63.22318603249732</v>
+        <v>63.22318221780006</v>
       </c>
       <c r="S32" s="1">
-        <v>71.51012704915684</v>
+        <v>71.51011560506504</v>
       </c>
       <c r="T32" s="1">
-        <v>10.46845078943079</v>
+        <v>10.46845072982615</v>
       </c>
       <c r="U32" s="1">
-        <v>27.35896020196378</v>
+        <v>27.3589599635452</v>
       </c>
       <c r="V32" s="1">
-        <v>16.57168355165049</v>
+        <v>16.5716834324412</v>
       </c>
       <c r="W32" s="1">
-        <v>22.29587096076284</v>
+        <v>22.2958709011582</v>
       </c>
       <c r="X32" s="1">
-        <v>15.6659469531005</v>
+        <v>15.66594693819934</v>
       </c>
       <c r="Y32" s="1">
-        <v>14.37655845009522</v>
+        <v>14.37655821167664</v>
       </c>
       <c r="Z32" s="1">
-        <v>10.78914149044431</v>
+        <v>10.78914125202573</v>
       </c>
       <c r="AA32" s="1">
-        <v>37.67208516658866</v>
+        <v>37.67208325924003</v>
       </c>
       <c r="AB32" s="1">
-        <v>14.76361081122013</v>
+        <v>14.76361033438297</v>
       </c>
       <c r="AC32" s="1">
-        <v>35.56776597055716</v>
+        <v>35.56776501688284</v>
       </c>
       <c r="AD32" s="1">
-        <v>17.12593333149744</v>
+        <v>17.12593312288118</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>787.8859054148197</v>
+        <v>787.8858787119389</v>
       </c>
       <c r="AG32" s="1">
-        <v>320.4775478839874</v>
+        <v>320.4775440692902</v>
       </c>
       <c r="AH32" s="1">
-        <v>132.0264522023499</v>
+        <v>132.0264520831406</v>
       </c>
       <c r="AI32" s="1">
-        <v>112.6544574629515</v>
+        <v>112.6544573437423</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1033.737649008632</v>
+        <v>1033.737641379237</v>
       </c>
       <c r="AK32" s="1">
-        <v>1598.896106557921</v>
+        <v>1598.89609487541</v>
       </c>
       <c r="AL32" s="1">
-        <v>2386.78201197274</v>
+        <v>2386.781973587349</v>
       </c>
     </row>
   </sheetData>
@@ -27092,7 +27092,7 @@
         <v>0.0040845712646842</v>
       </c>
       <c r="M5" s="1">
-        <v>0.000187047669896856</v>
+        <v>0.0001870476990006864</v>
       </c>
       <c r="N5" s="1">
         <v>5.96614700043574e-05</v>
@@ -27137,7 +27137,7 @@
         <v>0.9294862747192383</v>
       </c>
       <c r="AB5" s="1">
-        <v>0.8979878425598145</v>
+        <v>0.8979880809783936</v>
       </c>
       <c r="AC5" s="1">
         <v>2.078701972961426</v>
@@ -28683,88 +28683,88 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.244876623153687</v>
+        <v>1.244876384735107</v>
       </c>
       <c r="C19" s="1">
-        <v>1.181912541389465</v>
+        <v>1.181912302970886</v>
       </c>
       <c r="D19" s="1">
-        <v>9.15636157989502</v>
+        <v>9.156359672546387</v>
       </c>
       <c r="E19" s="1">
-        <v>12.57743072509766</v>
+        <v>12.57742881774902</v>
       </c>
       <c r="F19" s="1">
-        <v>1.458667755126953</v>
+        <v>1.458667516708374</v>
       </c>
       <c r="G19" s="1">
-        <v>21.63396072387695</v>
+        <v>21.63395690917969</v>
       </c>
       <c r="H19" s="1">
-        <v>44.23423767089844</v>
+        <v>44.23423004150391</v>
       </c>
       <c r="I19" s="1">
-        <v>6.008877754211426</v>
+        <v>6.008876800537109</v>
       </c>
       <c r="J19" s="1">
-        <v>4.115955829620361</v>
+        <v>4.115955352783203</v>
       </c>
       <c r="K19" s="1">
-        <v>18.16404151916504</v>
+        <v>18.16403770446777</v>
       </c>
       <c r="L19" s="1">
-        <v>29.41690826416016</v>
+        <v>29.41690444946289</v>
       </c>
       <c r="M19" s="1">
-        <v>1.554193735122681</v>
+        <v>1.554193496704102</v>
       </c>
       <c r="N19" s="1">
-        <v>0.4297094345092773</v>
+        <v>0.4297093749046326</v>
       </c>
       <c r="O19" s="1">
-        <v>2.24600625038147</v>
+        <v>2.246005773544312</v>
       </c>
       <c r="P19" s="1">
-        <v>3.389331817626953</v>
+        <v>3.389330863952637</v>
       </c>
       <c r="Q19" s="1">
-        <v>10.98330497741699</v>
+        <v>10.98330307006836</v>
       </c>
       <c r="R19" s="1">
-        <v>45.05149078369141</v>
+        <v>45.05148315429688</v>
       </c>
       <c r="S19" s="1">
-        <v>62.48944854736328</v>
+        <v>62.48944091796875</v>
       </c>
       <c r="T19" s="1">
-        <v>1.924028396606445</v>
+        <v>1.924028158187866</v>
       </c>
       <c r="U19" s="1">
-        <v>4.695269584655762</v>
+        <v>4.695269107818604</v>
       </c>
       <c r="V19" s="1">
-        <v>3.230484962463379</v>
+        <v>3.230484485626221</v>
       </c>
       <c r="W19" s="1">
-        <v>1.603327989578247</v>
+        <v>1.603327751159668</v>
       </c>
       <c r="X19" s="1">
-        <v>0.2903059124946594</v>
+        <v>0.2903058528900146</v>
       </c>
       <c r="Y19" s="1">
-        <v>5.336165428161621</v>
+        <v>5.336164474487305</v>
       </c>
       <c r="Z19" s="1">
-        <v>5.507397651672363</v>
+        <v>5.507396697998047</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.59807205200195</v>
+        <v>20.59806823730469</v>
       </c>
       <c r="AB19" s="1">
         <v>10.48742485046387</v>
       </c>
       <c r="AC19" s="1">
-        <v>19.53151321411133</v>
+        <v>19.53150939941406</v>
       </c>
       <c r="AD19" s="1">
         <v>9.611331939697266</v>
@@ -28773,25 +28773,25 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>358.1520385742188</v>
+        <v>358.1519775390625</v>
       </c>
       <c r="AG19" s="1">
-        <v>68.86048126220703</v>
+        <v>68.8604736328125</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.599632740020752</v>
+        <v>1.599632263183594</v>
       </c>
       <c r="AI19" s="1">
-        <v>2.080281734466553</v>
+        <v>2.080281496047974</v>
       </c>
       <c r="AJ19" s="1">
-        <v>28.35107040405273</v>
+        <v>28.35106658935547</v>
       </c>
       <c r="AK19" s="1">
-        <v>100.8914661407471</v>
+        <v>100.8914539813995</v>
       </c>
       <c r="AL19" s="1">
-        <v>459.0435047149658</v>
+        <v>459.043431520462</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -30191,88 +30191,88 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>74.05116195860319</v>
+        <v>74.05116172018461</v>
       </c>
       <c r="C32" s="1">
-        <v>28.14619069057517</v>
+        <v>28.14619045215659</v>
       </c>
       <c r="D32" s="1">
-        <v>41.42828645394184</v>
+        <v>41.4282845465932</v>
       </c>
       <c r="E32" s="1">
-        <v>114.0414504483342</v>
+        <v>114.0414485409856</v>
       </c>
       <c r="F32" s="1">
-        <v>13.58057432272471</v>
+        <v>13.58057408430614</v>
       </c>
       <c r="G32" s="1">
-        <v>123.8265797719359</v>
+        <v>123.8265759572387</v>
       </c>
       <c r="H32" s="1">
-        <v>148.7662693746388</v>
+        <v>148.7662617452443</v>
       </c>
       <c r="I32" s="1">
-        <v>83.21049866898102</v>
+        <v>83.2104977153067</v>
       </c>
       <c r="J32" s="1">
-        <v>25.04885908681899</v>
+        <v>25.04885860998183</v>
       </c>
       <c r="K32" s="1">
-        <v>206.5335413524881</v>
+        <v>206.5335375377908</v>
       </c>
       <c r="L32" s="1">
-        <v>341.809610042721</v>
+        <v>341.8096062280238</v>
       </c>
       <c r="M32" s="1">
-        <v>23.53668944450328</v>
+        <v>23.53668920611381</v>
       </c>
       <c r="N32" s="1">
-        <v>11.60090958468209</v>
+        <v>11.60090952507744</v>
       </c>
       <c r="O32" s="1">
-        <v>38.66703550209058</v>
+        <v>38.66703502525343</v>
       </c>
       <c r="P32" s="1">
-        <v>49.43172405315272</v>
+        <v>49.4317230994784</v>
       </c>
       <c r="Q32" s="1">
-        <v>238.6817501280457</v>
+        <v>238.681748220697</v>
       </c>
       <c r="R32" s="1">
-        <v>178.359568937216</v>
+        <v>178.3595613078214</v>
       </c>
       <c r="S32" s="1">
-        <v>152.3242241929065</v>
+        <v>152.324216563512</v>
       </c>
       <c r="T32" s="1">
-        <v>49.65027507816558</v>
+        <v>49.650274839747</v>
       </c>
       <c r="U32" s="1">
-        <v>48.26919573172927</v>
+        <v>48.26919525489211</v>
       </c>
       <c r="V32" s="1">
-        <v>57.51019569858909</v>
+        <v>57.51019522175193</v>
       </c>
       <c r="W32" s="1">
-        <v>77.38596635672729</v>
+        <v>77.38596611830872</v>
       </c>
       <c r="X32" s="1">
-        <v>59.65432165155653</v>
+        <v>59.65432159195188</v>
       </c>
       <c r="Y32" s="1">
-        <v>66.82709795423216</v>
+        <v>66.82709700055784</v>
       </c>
       <c r="Z32" s="1">
-        <v>41.66137540852651</v>
+        <v>41.66137445485219</v>
       </c>
       <c r="AA32" s="1">
-        <v>91.10598636651412</v>
+        <v>91.10598255181685</v>
       </c>
       <c r="AB32" s="1">
-        <v>51.35773915820755</v>
+        <v>51.35773939662613</v>
       </c>
       <c r="AC32" s="1">
-        <v>123.235744438216</v>
+        <v>123.2357406235187</v>
       </c>
       <c r="AD32" s="1">
         <v>53.05585162923671</v>
@@ -30281,25 +30281,25 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>2612.758689574897</v>
+        <v>2612.758628539741</v>
       </c>
       <c r="AG32" s="1">
-        <v>1118.883474349976</v>
+        <v>1118.883466720581</v>
       </c>
       <c r="AH32" s="1">
-        <v>436.7105449736118</v>
+        <v>436.7105444967747</v>
       </c>
       <c r="AI32" s="1">
-        <v>484.146605655551</v>
+        <v>484.1466054171324</v>
       </c>
       <c r="AJ32" s="1">
-        <v>522.3571664988995</v>
+        <v>522.3571626842022</v>
       </c>
       <c r="AK32" s="1">
-        <v>2562.097791478038</v>
+        <v>2562.09777931869</v>
       </c>
       <c r="AL32" s="1">
-        <v>5174.856481052935</v>
+        <v>5174.856407858431</v>
       </c>
     </row>
   </sheetData>
@@ -30796,10 +30796,10 @@
         <v>2.234099864959717</v>
       </c>
       <c r="F5" s="1">
-        <v>0.001505884807556868</v>
+        <v>0.001505885040387511</v>
       </c>
       <c r="G5" s="1">
-        <v>0.03247709199786186</v>
+        <v>0.03247709572315216</v>
       </c>
       <c r="H5" s="1">
         <v>0.03276819363236427</v>
@@ -30811,13 +30811,13 @@
         <v>0.002975668292492628</v>
       </c>
       <c r="K5" s="1">
-        <v>5.401644011726603e-05</v>
+        <v>5.401644739322364e-05</v>
       </c>
       <c r="L5" s="1">
         <v>0.0002561781438998878</v>
       </c>
       <c r="M5" s="1">
-        <v>4.540464942692779e-05</v>
+        <v>4.54046567028854e-05</v>
       </c>
       <c r="N5" s="1">
         <v>0.0002605927584227175</v>
@@ -30832,10 +30832,10 @@
         <v>0.3300096690654755</v>
       </c>
       <c r="R5" s="1">
-        <v>0.09218113124370575</v>
+        <v>0.09218114614486694</v>
       </c>
       <c r="S5" s="1">
-        <v>0.4374929368495941</v>
+        <v>0.4374929964542389</v>
       </c>
       <c r="T5" s="1">
         <v>6.992149353027344</v>
@@ -30850,10 +30850,10 @@
         <v>0.4831644296646118</v>
       </c>
       <c r="X5" s="1">
-        <v>0.03364947438240051</v>
+        <v>0.03364947810769081</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.6396793127059937</v>
+        <v>0.6396793723106384</v>
       </c>
       <c r="Z5" s="1">
         <v>0.9564991593360901</v>
@@ -30868,7 +30868,7 @@
         <v>1.1960688829422</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.811707079410553</v>
+        <v>0.8117071986198425</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -30877,7 +30877,7 @@
         <v>20.79011344909668</v>
       </c>
       <c r="AG5" s="1">
-        <v>63.02532958984375</v>
+        <v>63.02533721923828</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -30889,10 +30889,10 @@
         <v>1.966069459915161</v>
       </c>
       <c r="AK5" s="1">
-        <v>64.99139904975891</v>
+        <v>64.99140667915344</v>
       </c>
       <c r="AL5" s="1">
-        <v>85.78151249885559</v>
+        <v>85.78152012825012</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -32292,7 +32292,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>5.599925994873047</v>
+        <v>5.599925518035889</v>
       </c>
       <c r="C18" s="1">
         <v>5.036929130554199</v>
@@ -32346,7 +32346,7 @@
         <v>6.853358745574951</v>
       </c>
       <c r="T18" s="1">
-        <v>3.389497995376587</v>
+        <v>3.389497756958008</v>
       </c>
       <c r="U18" s="1">
         <v>1.314358353614807</v>
@@ -32376,16 +32376,16 @@
         <v>5.145695686340332</v>
       </c>
       <c r="AD18" s="1">
-        <v>3.157695770263672</v>
+        <v>3.157695293426514</v>
       </c>
       <c r="AE18" s="1">
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>79.01287841796875</v>
+        <v>79.01287078857422</v>
       </c>
       <c r="AG18" s="1">
-        <v>83.17372131347656</v>
+        <v>83.17371368408203</v>
       </c>
       <c r="AH18" s="1">
         <v>7.718081474304199</v>
@@ -32397,10 +32397,10 @@
         <v>13.15508842468262</v>
       </c>
       <c r="AK18" s="1">
-        <v>105.934291601181</v>
+        <v>105.9342839717865</v>
       </c>
       <c r="AL18" s="1">
-        <v>184.9471700191498</v>
+        <v>184.9471547603607</v>
       </c>
     </row>
     <row r="19" spans="1:38">
@@ -32408,115 +32408,115 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.2329900860786438</v>
+        <v>0.2329900562763214</v>
       </c>
       <c r="C19" s="1">
-        <v>0.6914597749710083</v>
+        <v>0.6914597153663635</v>
       </c>
       <c r="D19" s="1">
-        <v>11.21814918518066</v>
+        <v>11.21814727783203</v>
       </c>
       <c r="E19" s="1">
-        <v>0.3656060993671417</v>
+        <v>0.3656060695648193</v>
       </c>
       <c r="F19" s="1">
-        <v>0.01409775577485561</v>
+        <v>0.01409775391221046</v>
       </c>
       <c r="G19" s="1">
-        <v>3.886863231658936</v>
+        <v>3.886862754821777</v>
       </c>
       <c r="H19" s="1">
-        <v>0.4096740484237671</v>
+        <v>0.4096739888191223</v>
       </c>
       <c r="I19" s="1">
-        <v>0.01283237896859646</v>
+        <v>0.01283237710595131</v>
       </c>
       <c r="J19" s="1">
-        <v>0.6382275819778442</v>
+        <v>0.6382275223731995</v>
       </c>
       <c r="K19" s="1">
-        <v>0.276792973279953</v>
+        <v>0.2767929434776306</v>
       </c>
       <c r="L19" s="1">
-        <v>0.7273620963096619</v>
+        <v>0.7273619771003723</v>
       </c>
       <c r="M19" s="1">
-        <v>0.1485279649496078</v>
+        <v>0.1485279351472855</v>
       </c>
       <c r="N19" s="1">
         <v>0.7410119771957397</v>
       </c>
       <c r="O19" s="1">
-        <v>0.2466524541378021</v>
+        <v>0.2466523945331573</v>
       </c>
       <c r="P19" s="1">
-        <v>1.508267998695374</v>
+        <v>1.508267760276794</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.705320835113525</v>
+        <v>1.705320596694946</v>
       </c>
       <c r="R19" s="1">
-        <v>5.880571365356445</v>
+        <v>5.880570411682129</v>
       </c>
       <c r="S19" s="1">
-        <v>12.52763080596924</v>
+        <v>12.52762985229492</v>
       </c>
       <c r="T19" s="1">
         <v>0.4141507744789124</v>
       </c>
       <c r="U19" s="1">
-        <v>0.5737918615341187</v>
+        <v>0.5737918019294739</v>
       </c>
       <c r="V19" s="1">
-        <v>0.5234368443489075</v>
+        <v>0.5234367847442627</v>
       </c>
       <c r="W19" s="1">
-        <v>0.3266084492206573</v>
+        <v>0.3266083896160126</v>
       </c>
       <c r="X19" s="1">
-        <v>0.064271479845047</v>
+        <v>0.0642714723944664</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.06931209564209</v>
+        <v>1.069311857223511</v>
       </c>
       <c r="Z19" s="1">
-        <v>1.561339020729065</v>
+        <v>1.561338782310486</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.102842330932617</v>
+        <v>7.102841377258301</v>
       </c>
       <c r="AB19" s="1">
-        <v>1.328410387039185</v>
+        <v>1.328410267829895</v>
       </c>
       <c r="AC19" s="1">
-        <v>4.421327114105225</v>
+        <v>4.421326637268066</v>
       </c>
       <c r="AD19" s="1">
-        <v>2.979931592941284</v>
+        <v>2.979931116104126</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>61.59745788574219</v>
+        <v>61.59745407104492</v>
       </c>
       <c r="AG19" s="1">
-        <v>15.78314971923828</v>
+        <v>15.78314781188965</v>
       </c>
       <c r="AH19" s="1">
         <v>0.2602858245372772</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.4684597253799438</v>
+        <v>0.4684596657752991</v>
       </c>
       <c r="AJ19" s="1">
-        <v>3.10824728012085</v>
+        <v>3.108246803283691</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.62014254927635</v>
+        <v>19.62014010548592</v>
       </c>
       <c r="AL19" s="1">
-        <v>81.21760043501854</v>
+        <v>81.21759417653084</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -33916,115 +33916,115 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>20.84595716235344</v>
+        <v>20.84595665571396</v>
       </c>
       <c r="C32" s="1">
-        <v>15.81845066370443</v>
+        <v>15.81845060409978</v>
       </c>
       <c r="D32" s="1">
-        <v>54.61599385924637</v>
+        <v>54.61599195189774</v>
       </c>
       <c r="E32" s="1">
-        <v>5.771050740266219</v>
+        <v>5.771050710463896</v>
       </c>
       <c r="F32" s="1">
-        <v>0.2263619745317555</v>
+        <v>0.226361972901941</v>
       </c>
       <c r="G32" s="1">
-        <v>21.66739925043657</v>
+        <v>21.66739877732471</v>
       </c>
       <c r="H32" s="1">
-        <v>2.203682462670258</v>
+        <v>2.203682403065613</v>
       </c>
       <c r="I32" s="1">
-        <v>0.2368383946156882</v>
+        <v>0.2368383927530431</v>
       </c>
       <c r="J32" s="1">
-        <v>5.307485140394419</v>
+        <v>5.307485080789775</v>
       </c>
       <c r="K32" s="1">
-        <v>6.309784195578686</v>
+        <v>6.30978416578364</v>
       </c>
       <c r="L32" s="1">
-        <v>13.43271611415548</v>
+        <v>13.43271599494619</v>
       </c>
       <c r="M32" s="1">
-        <v>3.221516337545836</v>
+        <v>3.22151630775079</v>
       </c>
       <c r="N32" s="1">
         <v>24.97061456771917</v>
       </c>
       <c r="O32" s="1">
-        <v>5.991603177768411</v>
+        <v>5.991603118163766</v>
       </c>
       <c r="P32" s="1">
-        <v>26.52351323269249</v>
+        <v>26.52351299427391</v>
       </c>
       <c r="Q32" s="1">
-        <v>59.38165686652064</v>
+        <v>59.38165662810206</v>
       </c>
       <c r="R32" s="1">
-        <v>27.05128960803268</v>
+        <v>27.05128866925952</v>
       </c>
       <c r="S32" s="1">
-        <v>36.90327053112935</v>
+        <v>36.90326963705968</v>
       </c>
       <c r="T32" s="1">
-        <v>15.64624134569021</v>
+        <v>15.64624110727163</v>
       </c>
       <c r="U32" s="1">
-        <v>12.03777888324112</v>
+        <v>12.03777882363647</v>
       </c>
       <c r="V32" s="1">
-        <v>13.36813343176618</v>
+        <v>13.36813337216154</v>
       </c>
       <c r="W32" s="1">
-        <v>13.83945219617453</v>
+        <v>13.83945213656989</v>
       </c>
       <c r="X32" s="1">
-        <v>14.72596057565534</v>
+        <v>14.72596057193005</v>
       </c>
       <c r="Y32" s="1">
-        <v>17.11433424188863</v>
+        <v>17.11433406307469</v>
       </c>
       <c r="Z32" s="1">
-        <v>15.82093402411556</v>
+        <v>15.82093378569698</v>
       </c>
       <c r="AA32" s="1">
-        <v>44.35590549542394</v>
+        <v>44.35590454174962</v>
       </c>
       <c r="AB32" s="1">
-        <v>9.7920696768997</v>
+        <v>9.792069557690411</v>
       </c>
       <c r="AC32" s="1">
-        <v>39.57628262233084</v>
+        <v>39.57628214549368</v>
       </c>
       <c r="AD32" s="1">
-        <v>22.29602382155645</v>
+        <v>22.29602298709142</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>549.0523023605347</v>
+        <v>549.0522909164429</v>
       </c>
       <c r="AG32" s="1">
-        <v>363.2622904479504</v>
+        <v>363.2622885406017</v>
       </c>
       <c r="AH32" s="1">
         <v>92.56727744452655</v>
       </c>
       <c r="AI32" s="1">
-        <v>126.7226068377495</v>
+        <v>126.7226067781448</v>
       </c>
       <c r="AJ32" s="1">
-        <v>102.7563269026577</v>
+        <v>102.7563264258206</v>
       </c>
       <c r="AK32" s="1">
-        <v>685.3085016328841</v>
+        <v>685.3084991890937</v>
       </c>
       <c r="AL32" s="1">
-        <v>1234.360803993419</v>
+        <v>1234.360790105537</v>
       </c>
     </row>
   </sheetData>
@@ -34509,7 +34509,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6.832309722900391</v>
+        <v>6.832310199737549</v>
       </c>
       <c r="C5" s="1">
         <v>0.2482730150222778</v>
@@ -34530,7 +34530,7 @@
         <v>5.668145656585693</v>
       </c>
       <c r="I5" s="1">
-        <v>0.8181847929954529</v>
+        <v>0.8181848526000977</v>
       </c>
       <c r="J5" s="1">
         <v>0.008968286216259003</v>
@@ -34569,13 +34569,13 @@
         <v>0.4639245569705963</v>
       </c>
       <c r="V5" s="1">
-        <v>0.3013142049312592</v>
+        <v>0.3013142347335815</v>
       </c>
       <c r="W5" s="1">
         <v>1.297735095024109</v>
       </c>
       <c r="X5" s="1">
-        <v>0.07808125764131546</v>
+        <v>0.07808126509189606</v>
       </c>
       <c r="Y5" s="1">
         <v>1.210125327110291</v>
@@ -34611,13 +34611,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>43.18991851806641</v>
+        <v>43.18991088867188</v>
       </c>
       <c r="AK5" s="1">
-        <v>189.5331344604492</v>
+        <v>189.5331268310547</v>
       </c>
       <c r="AL5" s="1">
-        <v>260.7129821777344</v>
+        <v>260.7129745483398</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -36133,10 +36133,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.4785470962524414</v>
+        <v>0.478547066450119</v>
       </c>
       <c r="C19" s="1">
-        <v>1.050590038299561</v>
+        <v>1.050589919090271</v>
       </c>
       <c r="D19" s="1">
         <v>17.24013900756836</v>
@@ -36145,10 +36145,10 @@
         <v>2.029618740081787</v>
       </c>
       <c r="F19" s="1">
-        <v>0.354444831609726</v>
+        <v>0.3544448018074036</v>
       </c>
       <c r="G19" s="1">
-        <v>6.772554397583008</v>
+        <v>6.77255392074585</v>
       </c>
       <c r="H19" s="1">
         <v>91.44668579101562</v>
@@ -36157,13 +36157,13 @@
         <v>0.8602295517921448</v>
       </c>
       <c r="J19" s="1">
-        <v>2.487223148345947</v>
+        <v>2.487222909927368</v>
       </c>
       <c r="K19" s="1">
         <v>56.50378036499023</v>
       </c>
       <c r="L19" s="1">
-        <v>0.05772097781300545</v>
+        <v>0.05772097408771515</v>
       </c>
       <c r="M19" s="1">
         <v>0.6277674436569214</v>
@@ -36172,13 +36172,13 @@
         <v>2.025461673736572</v>
       </c>
       <c r="O19" s="1">
-        <v>1.779311060905457</v>
+        <v>1.779310941696167</v>
       </c>
       <c r="P19" s="1">
         <v>4.309667587280273</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.0992431640625</v>
+        <v>6.099242687225342</v>
       </c>
       <c r="R19" s="1">
         <v>23.25943756103516</v>
@@ -36187,7 +36187,7 @@
         <v>45.13788986206055</v>
       </c>
       <c r="T19" s="1">
-        <v>2.622108936309814</v>
+        <v>2.622108697891235</v>
       </c>
       <c r="U19" s="1">
         <v>2.018323421478271</v>
@@ -36202,22 +36202,22 @@
         <v>0.2177674919366837</v>
       </c>
       <c r="Y19" s="1">
-        <v>2.617211818695068</v>
+        <v>2.617211580276489</v>
       </c>
       <c r="Z19" s="1">
-        <v>3.873403787612915</v>
+        <v>3.873403549194336</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.87240409851074</v>
+        <v>21.87240219116211</v>
       </c>
       <c r="AB19" s="1">
-        <v>6.122340202331543</v>
+        <v>6.122339725494385</v>
       </c>
       <c r="AC19" s="1">
-        <v>12.93866920471191</v>
+        <v>12.9386682510376</v>
       </c>
       <c r="AD19" s="1">
-        <v>7.015646934509277</v>
+        <v>7.015646457672119</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -36226,22 +36226,22 @@
         <v>324.3089904785156</v>
       </c>
       <c r="AG19" s="1">
-        <v>48.25205230712891</v>
+        <v>48.25204849243164</v>
       </c>
       <c r="AH19" s="1">
         <v>1.387825727462769</v>
       </c>
       <c r="AI19" s="1">
-        <v>1.369815826416016</v>
+        <v>1.369815707206726</v>
       </c>
       <c r="AJ19" s="1">
-        <v>88.37064361572266</v>
+        <v>88.37063598632812</v>
       </c>
       <c r="AK19" s="1">
-        <v>139.3803374767303</v>
+        <v>139.3803259134293</v>
       </c>
       <c r="AL19" s="1">
-        <v>463.689327955246</v>
+        <v>463.6893163919449</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -37641,10 +37641,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>35.02642815897707</v>
+        <v>35.0264286060119</v>
       </c>
       <c r="C32" s="1">
-        <v>19.68188840174116</v>
+        <v>19.68188828253187</v>
       </c>
       <c r="D32" s="1">
         <v>77.50764217693359</v>
@@ -37653,25 +37653,25 @@
         <v>26.23486102046445</v>
       </c>
       <c r="F32" s="1">
-        <v>4.20380413447856</v>
+        <v>4.203804104676237</v>
       </c>
       <c r="G32" s="1">
-        <v>38.86288566328585</v>
+        <v>38.86288518644869</v>
       </c>
       <c r="H32" s="1">
         <v>298.8701160252094</v>
       </c>
       <c r="I32" s="1">
-        <v>12.28715813447343</v>
+        <v>12.28715819407807</v>
       </c>
       <c r="J32" s="1">
-        <v>15.85924324812368</v>
+        <v>15.8592430097051</v>
       </c>
       <c r="K32" s="1">
         <v>534.9177703978494</v>
       </c>
       <c r="L32" s="1">
-        <v>1.038941923454331</v>
+        <v>1.038941919729041</v>
       </c>
       <c r="M32" s="1">
         <v>8.784145258832723</v>
@@ -37680,13 +37680,13 @@
         <v>40.23811024922179</v>
       </c>
       <c r="O32" s="1">
-        <v>32.6794650106749</v>
+        <v>32.67946489146561</v>
       </c>
       <c r="P32" s="1">
         <v>72.64242868173096</v>
       </c>
       <c r="Q32" s="1">
-        <v>172.7018911507912</v>
+        <v>172.701890673954</v>
       </c>
       <c r="R32" s="1">
         <v>101.537677921704</v>
@@ -37695,37 +37695,37 @@
         <v>117.645644026903</v>
       </c>
       <c r="T32" s="1">
-        <v>89.46599676308688</v>
+        <v>89.4659965246683</v>
       </c>
       <c r="U32" s="1">
         <v>36.91488487832248</v>
       </c>
       <c r="V32" s="1">
-        <v>29.29071216937155</v>
+        <v>29.29071219917387</v>
       </c>
       <c r="W32" s="1">
         <v>59.32286554930033</v>
       </c>
       <c r="X32" s="1">
-        <v>42.45418287208304</v>
+        <v>42.45418287953362</v>
       </c>
       <c r="Y32" s="1">
-        <v>42.37622836968058</v>
+        <v>42.376228131262</v>
       </c>
       <c r="Z32" s="1">
-        <v>38.50273054372519</v>
+        <v>38.50273030530661</v>
       </c>
       <c r="AA32" s="1">
-        <v>128.0197528993885</v>
+        <v>128.0197509920399</v>
       </c>
       <c r="AB32" s="1">
-        <v>36.36768975260202</v>
+        <v>36.36768927576486</v>
       </c>
       <c r="AC32" s="1">
-        <v>88.16286246367554</v>
+        <v>88.16286151000122</v>
       </c>
       <c r="AD32" s="1">
-        <v>47.90612555253028</v>
+        <v>47.90612507569313</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -37734,22 +37734,22 @@
         <v>2249.504129208624</v>
       </c>
       <c r="AG32" s="1">
-        <v>851.7032420635223</v>
+        <v>851.7032382488251</v>
       </c>
       <c r="AH32" s="1">
         <v>307.5578148290515</v>
       </c>
       <c r="AI32" s="1">
-        <v>135.212428085506</v>
+        <v>135.2124279662967</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1976.150665715337</v>
+        <v>1976.150650456548</v>
       </c>
       <c r="AK32" s="1">
-        <v>3270.624150693417</v>
+        <v>3270.624131500721</v>
       </c>
       <c r="AL32" s="1">
-        <v>5520.128279902041</v>
+        <v>5520.128260709345</v>
       </c>
     </row>
   </sheetData>
@@ -41971,7 +41971,7 @@
         <v>41.52857208251953</v>
       </c>
       <c r="F5" s="1">
-        <v>0.03252515941858292</v>
+        <v>0.03252516686916351</v>
       </c>
       <c r="G5" s="1">
         <v>0.0210358202457428</v>
@@ -41983,13 +41983,13 @@
         <v>14.45183563232422</v>
       </c>
       <c r="J5" s="1">
-        <v>0.02499692142009735</v>
+        <v>0.02499692514538765</v>
       </c>
       <c r="K5" s="1">
         <v>0.0006537326844409108</v>
       </c>
       <c r="L5" s="1">
-        <v>0.0007968690479174256</v>
+        <v>0.0007968691643327475</v>
       </c>
       <c r="M5" s="1">
         <v>0.001834025606513023</v>
@@ -41998,7 +41998,7 @@
         <v>0.0009454602841287851</v>
       </c>
       <c r="O5" s="1">
-        <v>0.001293342793360353</v>
+        <v>0.001293343026190996</v>
       </c>
       <c r="P5" s="1">
         <v>0.27204430103302</v>
@@ -42007,7 +42007,7 @@
         <v>0.8949930667877197</v>
       </c>
       <c r="R5" s="1">
-        <v>0.3100472688674927</v>
+        <v>0.3100473284721375</v>
       </c>
       <c r="S5" s="1">
         <v>1.619449377059937</v>
@@ -42040,10 +42040,10 @@
         <v>0.9270448684692383</v>
       </c>
       <c r="AC5" s="1">
-        <v>2.488102912902832</v>
+        <v>2.48810338973999</v>
       </c>
       <c r="AD5" s="1">
-        <v>1.397724628448486</v>
+        <v>1.397724866867065</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -45103,7 +45103,7 @@
         <v>157.5697840321809</v>
       </c>
       <c r="F32" s="1">
-        <v>8.421345012029633</v>
+        <v>8.421345019480214</v>
       </c>
       <c r="G32" s="1">
         <v>45.85376856196672</v>
@@ -45115,13 +45115,13 @@
         <v>261.0890369309345</v>
       </c>
       <c r="J32" s="1">
-        <v>63.15450306236744</v>
+        <v>63.15450306609273</v>
       </c>
       <c r="K32" s="1">
         <v>146.4996183176991</v>
       </c>
       <c r="L32" s="1">
-        <v>87.38216664921492</v>
+        <v>87.38216664933134</v>
       </c>
       <c r="M32" s="1">
         <v>176.9418799313717</v>
@@ -45130,7 +45130,7 @@
         <v>129.8196615877096</v>
       </c>
       <c r="O32" s="1">
-        <v>51.32970510737505</v>
+        <v>51.32970510760788</v>
       </c>
       <c r="P32" s="1">
         <v>67.30249187323352</v>
@@ -45139,7 +45139,7 @@
         <v>283.2246383633465</v>
       </c>
       <c r="R32" s="1">
-        <v>185.178914945107</v>
+        <v>185.1789150047116</v>
       </c>
       <c r="S32" s="1">
         <v>175.0227766661592</v>
@@ -45172,10 +45172,10 @@
         <v>59.91242739040172</v>
       </c>
       <c r="AC32" s="1">
-        <v>134.3635885324793</v>
+        <v>134.3635890093165</v>
       </c>
       <c r="AD32" s="1">
-        <v>80.8991415494238</v>
+        <v>80.89914178784238</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -45702,7 +45702,7 @@
         <v>0.01980926096439362</v>
       </c>
       <c r="H5" s="1">
-        <v>1.256617069244385</v>
+        <v>1.256617546081543</v>
       </c>
       <c r="I5" s="1">
         <v>2.973007202148438</v>
@@ -48834,7 +48834,7 @@
         <v>118.509228871204</v>
       </c>
       <c r="H32" s="1">
-        <v>304.9265154898167</v>
+        <v>304.9265159666538</v>
       </c>
       <c r="I32" s="1">
         <v>174.6655155087647</v>
@@ -49445,7 +49445,7 @@
         <v>0.0002290663542225957</v>
       </c>
       <c r="N5" s="1">
-        <v>9.476841660216451e-05</v>
+        <v>9.476847480982542e-05</v>
       </c>
       <c r="O5" s="1">
         <v>0.0001674449304118752</v>
@@ -50971,7 +50971,7 @@
         <v>12.73480892181396</v>
       </c>
       <c r="T18" s="1">
-        <v>6.649911403656006</v>
+        <v>6.649910449981689</v>
       </c>
       <c r="U18" s="1">
         <v>3.691864728927612</v>
@@ -51033,10 +51033,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.6113255023956299</v>
+        <v>0.6113253831863403</v>
       </c>
       <c r="C19" s="1">
-        <v>0.8787564635276794</v>
+        <v>0.8787565231323242</v>
       </c>
       <c r="D19" s="1">
         <v>1.499840259552002</v>
@@ -51045,7 +51045,7 @@
         <v>28.65041732788086</v>
       </c>
       <c r="F19" s="1">
-        <v>0.4226543307304382</v>
+        <v>0.4226543605327606</v>
       </c>
       <c r="G19" s="1">
         <v>9.996252059936523</v>
@@ -51054,19 +51054,19 @@
         <v>19.03205490112305</v>
       </c>
       <c r="I19" s="1">
-        <v>1.960996985435486</v>
+        <v>1.960997104644775</v>
       </c>
       <c r="J19" s="1">
         <v>7.817956924438477</v>
       </c>
       <c r="K19" s="1">
-        <v>21.12344169616699</v>
+        <v>21.12344360351562</v>
       </c>
       <c r="L19" s="1">
         <v>1.42459511756897</v>
       </c>
       <c r="M19" s="1">
-        <v>6.999044418334961</v>
+        <v>6.999044895172119</v>
       </c>
       <c r="N19" s="1">
         <v>2.427838325500488</v>
@@ -51075,13 +51075,13 @@
         <v>1.46906852722168</v>
       </c>
       <c r="P19" s="1">
-        <v>5.46391487121582</v>
+        <v>5.463915824890137</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.756653308868408</v>
+        <v>5.756653785705566</v>
       </c>
       <c r="R19" s="1">
-        <v>28.5598030090332</v>
+        <v>28.55980491638184</v>
       </c>
       <c r="S19" s="1">
         <v>37.98814392089844</v>
@@ -51105,43 +51105,43 @@
         <v>3.141137838363647</v>
       </c>
       <c r="Z19" s="1">
-        <v>3.485102415084839</v>
+        <v>3.485102653503418</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.35273170471191</v>
+        <v>20.35273361206055</v>
       </c>
       <c r="AB19" s="1">
         <v>6.175996780395508</v>
       </c>
       <c r="AC19" s="1">
-        <v>13.82746028900146</v>
+        <v>13.82746124267578</v>
       </c>
       <c r="AD19" s="1">
-        <v>8.673624038696289</v>
+        <v>8.673624992370605</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>245.1535034179688</v>
+        <v>245.1535186767578</v>
       </c>
       <c r="AG19" s="1">
-        <v>50.72360992431641</v>
+        <v>50.72361373901367</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.5977887511253357</v>
+        <v>0.5977886915206909</v>
       </c>
       <c r="AI19" s="1">
-        <v>1.410117745399475</v>
+        <v>1.410117864608765</v>
       </c>
       <c r="AJ19" s="1">
-        <v>41.77122497558594</v>
+        <v>41.7712287902832</v>
       </c>
       <c r="AK19" s="1">
-        <v>94.50274139642715</v>
+        <v>94.50274908542633</v>
       </c>
       <c r="AL19" s="1">
-        <v>339.6562448143959</v>
+        <v>339.6562677621841</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -52541,10 +52541,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>44.69147573853843</v>
+        <v>44.69147561932914</v>
       </c>
       <c r="C32" s="1">
-        <v>18.46660884190351</v>
+        <v>18.46660890150815</v>
       </c>
       <c r="D32" s="1">
         <v>5.640047230088385</v>
@@ -52553,7 +52553,7 @@
         <v>273.9026912003756</v>
       </c>
       <c r="F32" s="1">
-        <v>4.623176822700771</v>
+        <v>4.623176852503093</v>
       </c>
       <c r="G32" s="1">
         <v>52.48277149815112</v>
@@ -52562,40 +52562,40 @@
         <v>70.79647903330624</v>
       </c>
       <c r="I32" s="1">
-        <v>27.01084818376694</v>
+        <v>27.01084830297623</v>
       </c>
       <c r="J32" s="1">
         <v>37.77363697066903</v>
       </c>
       <c r="K32" s="1">
-        <v>185.0234184940346</v>
+        <v>185.0234204013832</v>
       </c>
       <c r="L32" s="1">
         <v>21.30707882880233</v>
       </c>
       <c r="M32" s="1">
-        <v>72.42834845959442</v>
+        <v>72.42834893643158</v>
       </c>
       <c r="N32" s="1">
-        <v>41.18080531508895</v>
+        <v>41.18080531514715</v>
       </c>
       <c r="O32" s="1">
         <v>22.7088783706713</v>
       </c>
       <c r="P32" s="1">
-        <v>74.10925222298829</v>
+        <v>74.10925317666261</v>
       </c>
       <c r="Q32" s="1">
-        <v>118.0704150116071</v>
+        <v>118.0704154884443</v>
       </c>
       <c r="R32" s="1">
-        <v>102.4248234168626</v>
+        <v>102.4248253242113</v>
       </c>
       <c r="S32" s="1">
         <v>87.50147109830368</v>
       </c>
       <c r="T32" s="1">
-        <v>26.38866118298029</v>
+        <v>26.38866022930597</v>
       </c>
       <c r="U32" s="1">
         <v>43.55774645507336</v>
@@ -52613,43 +52613,43 @@
         <v>39.934851597744</v>
       </c>
       <c r="Z32" s="1">
-        <v>28.10015408165054</v>
+        <v>28.10015432006912</v>
       </c>
       <c r="AA32" s="1">
-        <v>97.18204372911714</v>
+        <v>97.18204563646577</v>
       </c>
       <c r="AB32" s="1">
         <v>33.83051553671248</v>
       </c>
       <c r="AC32" s="1">
-        <v>91.21018218561619</v>
+        <v>91.21018313929051</v>
       </c>
       <c r="AD32" s="1">
-        <v>49.58585729577317</v>
+        <v>49.58585824944748</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1778.402057111263</v>
+        <v>1778.402072370052</v>
       </c>
       <c r="AG32" s="1">
-        <v>775.5876138210297</v>
+        <v>775.5876176357269</v>
       </c>
       <c r="AH32" s="1">
-        <v>134.7968904972076</v>
+        <v>134.796890437603</v>
       </c>
       <c r="AI32" s="1">
-        <v>263.3864626735449</v>
+        <v>263.3864627927542</v>
       </c>
       <c r="AJ32" s="1">
-        <v>890.9348965659738</v>
+        <v>890.934900380671</v>
       </c>
       <c r="AK32" s="1">
-        <v>2064.705863557756</v>
+        <v>2064.705871246755</v>
       </c>
       <c r="AL32" s="1">
-        <v>3843.107920669019</v>
+        <v>3843.107943616807</v>
       </c>
     </row>
   </sheetData>
@@ -53146,7 +53146,7 @@
         <v>49.21942520141602</v>
       </c>
       <c r="F5" s="1">
-        <v>0.3737655580043793</v>
+        <v>0.3737654983997345</v>
       </c>
       <c r="G5" s="1">
         <v>0.07058345526456833</v>
@@ -56278,7 +56278,7 @@
         <v>155.057981044054</v>
       </c>
       <c r="F32" s="1">
-        <v>42.61205767979845</v>
+        <v>42.61205762019381</v>
       </c>
       <c r="G32" s="1">
         <v>102.7440343499184</v>
@@ -62208,115 +62208,115 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.2267417013645172</v>
+        <v>0.22674161195755</v>
       </c>
       <c r="C19" s="1">
-        <v>0.4930964708328247</v>
+        <v>0.4930963516235352</v>
       </c>
       <c r="D19" s="1">
-        <v>0.8391335010528564</v>
+        <v>0.8391332626342773</v>
       </c>
       <c r="E19" s="1">
-        <v>4.327212333679199</v>
+        <v>4.327211380004883</v>
       </c>
       <c r="F19" s="1">
-        <v>0.2829400897026062</v>
+        <v>0.2829399704933167</v>
       </c>
       <c r="G19" s="1">
-        <v>4.249429702758789</v>
+        <v>4.249427795410156</v>
       </c>
       <c r="H19" s="1">
-        <v>84.90815734863281</v>
+        <v>84.90811157226562</v>
       </c>
       <c r="I19" s="1">
-        <v>6.736946105957031</v>
+        <v>6.736943244934082</v>
       </c>
       <c r="J19" s="1">
-        <v>2.482419967651367</v>
+        <v>2.482419013977051</v>
       </c>
       <c r="K19" s="1">
-        <v>1.506930112838745</v>
+        <v>1.506929397583008</v>
       </c>
       <c r="L19" s="1">
-        <v>0.1291236281394958</v>
+        <v>0.1291235685348511</v>
       </c>
       <c r="M19" s="1">
-        <v>4.715912818908691</v>
+        <v>4.715910911560059</v>
       </c>
       <c r="N19" s="1">
-        <v>0.08449403941631317</v>
+        <v>0.08449400961399078</v>
       </c>
       <c r="O19" s="1">
-        <v>0.8804677724838257</v>
+        <v>0.880467414855957</v>
       </c>
       <c r="P19" s="1">
-        <v>2.274663925170898</v>
+        <v>2.274662971496582</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.739696502685547</v>
+        <v>4.739694595336914</v>
       </c>
       <c r="R19" s="1">
-        <v>12.69958305358887</v>
+        <v>12.69957733154297</v>
       </c>
       <c r="S19" s="1">
-        <v>62.84310913085938</v>
+        <v>62.84307861328125</v>
       </c>
       <c r="T19" s="1">
-        <v>0.7065943479537964</v>
+        <v>0.7065941095352173</v>
       </c>
       <c r="U19" s="1">
-        <v>1.231090307235718</v>
+        <v>1.23108983039856</v>
       </c>
       <c r="V19" s="1">
-        <v>0.7417448759078979</v>
+        <v>0.7417446374893188</v>
       </c>
       <c r="W19" s="1">
-        <v>0.6323889493942261</v>
+        <v>0.632388710975647</v>
       </c>
       <c r="X19" s="1">
-        <v>0.1110167354345322</v>
+        <v>0.1110166907310486</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.782884120941162</v>
+        <v>1.782883405685425</v>
       </c>
       <c r="Z19" s="1">
-        <v>2.932338714599609</v>
+        <v>2.932337760925293</v>
       </c>
       <c r="AA19" s="1">
-        <v>11.17975044250488</v>
+        <v>11.17974662780762</v>
       </c>
       <c r="AB19" s="1">
-        <v>3.071165084838867</v>
+        <v>3.071163654327393</v>
       </c>
       <c r="AC19" s="1">
-        <v>7.660343170166016</v>
+        <v>7.660340309143066</v>
       </c>
       <c r="AD19" s="1">
-        <v>3.909391403198242</v>
+        <v>3.909389495849609</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>228.3787841796875</v>
+        <v>228.378662109375</v>
       </c>
       <c r="AG19" s="1">
-        <v>27.46738433837891</v>
+        <v>27.46737289428711</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.6324846744537354</v>
+        <v>0.6324844360351562</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.7690026760101318</v>
+        <v>0.7690023183822632</v>
       </c>
       <c r="AJ19" s="1">
-        <v>74.31021118164062</v>
+        <v>74.3101806640625</v>
       </c>
       <c r="AK19" s="1">
-        <v>103.1790828704834</v>
+        <v>103.179040312767</v>
       </c>
       <c r="AL19" s="1">
-        <v>331.5578670501709</v>
+        <v>331.557702422142</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -63716,115 +63716,115 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>38.39981665363302</v>
+        <v>38.39981656422606</v>
       </c>
       <c r="C32" s="1">
-        <v>28.14086122298613</v>
+        <v>28.14086110377684</v>
       </c>
       <c r="D32" s="1">
-        <v>6.536653036862845</v>
+        <v>6.536652798444265</v>
       </c>
       <c r="E32" s="1">
-        <v>113.4181006215513</v>
+        <v>113.418099667877</v>
       </c>
       <c r="F32" s="1">
-        <v>6.731338115059771</v>
+        <v>6.731337995850481</v>
       </c>
       <c r="G32" s="1">
-        <v>68.12315949052572</v>
+        <v>68.12315758317709</v>
       </c>
       <c r="H32" s="1">
-        <v>499.6684256792068</v>
+        <v>499.6683799028397</v>
       </c>
       <c r="I32" s="1">
-        <v>177.2707321713679</v>
+        <v>177.2707293103449</v>
       </c>
       <c r="J32" s="1">
-        <v>31.54518253076822</v>
+        <v>31.5451815770939</v>
       </c>
       <c r="K32" s="1">
-        <v>57.98837756256398</v>
+        <v>57.98837684730825</v>
       </c>
       <c r="L32" s="1">
-        <v>5.287187668953266</v>
+        <v>5.287187609348621</v>
       </c>
       <c r="M32" s="1">
-        <v>161.0634270361043</v>
+        <v>161.0634251287556</v>
       </c>
       <c r="N32" s="1">
-        <v>5.617028668566491</v>
+        <v>5.617028638764168</v>
       </c>
       <c r="O32" s="1">
-        <v>41.26515596683021</v>
+        <v>41.26515560920234</v>
       </c>
       <c r="P32" s="1">
-        <v>77.00572679471952</v>
+        <v>77.00572584104521</v>
       </c>
       <c r="Q32" s="1">
-        <v>301.766755389981</v>
+        <v>301.7667534826323</v>
       </c>
       <c r="R32" s="1">
-        <v>105.0282982904464</v>
+        <v>105.0282925684005</v>
       </c>
       <c r="S32" s="1">
-        <v>246.7162587527228</v>
+        <v>246.7162282351446</v>
       </c>
       <c r="T32" s="1">
-        <v>50.03368885151576</v>
+        <v>50.03368861309718</v>
       </c>
       <c r="U32" s="1">
-        <v>43.04701178567484</v>
+        <v>43.04701130883768</v>
       </c>
       <c r="V32" s="1">
-        <v>31.49646548833698</v>
+        <v>31.4964652499184</v>
       </c>
       <c r="W32" s="1">
-        <v>50.71951217309106</v>
+        <v>50.71951193467248</v>
       </c>
       <c r="X32" s="1">
-        <v>37.80985810919083</v>
+        <v>37.80985806448734</v>
       </c>
       <c r="Y32" s="1">
-        <v>63.11704476781961</v>
+        <v>63.11704405256387</v>
       </c>
       <c r="Z32" s="1">
-        <v>52.39550651051104</v>
+        <v>52.39550555683672</v>
       </c>
       <c r="AA32" s="1">
-        <v>120.6414414851461</v>
+        <v>120.6414376704488</v>
       </c>
       <c r="AB32" s="1">
-        <v>36.30685476463987</v>
+        <v>36.30685333412839</v>
       </c>
       <c r="AC32" s="1">
-        <v>100.9046647606938</v>
+        <v>100.9046618996708</v>
       </c>
       <c r="AD32" s="1">
-        <v>48.97255457941355</v>
+        <v>48.97255267206492</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>2607.017163515091</v>
+        <v>2607.017041444778</v>
       </c>
       <c r="AG32" s="1">
-        <v>1057.091697394848</v>
+        <v>1057.091685950756</v>
       </c>
       <c r="AH32" s="1">
-        <v>436.0984785780311</v>
+        <v>436.0984783396125</v>
       </c>
       <c r="AI32" s="1">
-        <v>314.6502858512104</v>
+        <v>314.6502854935825</v>
       </c>
       <c r="AJ32" s="1">
-        <v>3492.127059876919</v>
+        <v>3492.127029359341</v>
       </c>
       <c r="AK32" s="1">
-        <v>5299.967521701008</v>
+        <v>5299.967479143292</v>
       </c>
       <c r="AL32" s="1">
-        <v>7906.984685216099</v>
+        <v>7906.98452058807</v>
       </c>
     </row>
   </sheetData>
@@ -65933,115 +65933,115 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.3571732044219971</v>
+        <v>0.3571732938289642</v>
       </c>
       <c r="C19" s="1">
-        <v>1.08234691619873</v>
+        <v>1.08234715461731</v>
       </c>
       <c r="D19" s="1">
-        <v>3.244604587554932</v>
+        <v>3.244605302810669</v>
       </c>
       <c r="E19" s="1">
-        <v>3.916637182235718</v>
+        <v>3.916637897491455</v>
       </c>
       <c r="F19" s="1">
-        <v>0.1230554506182671</v>
+        <v>0.1230554729700089</v>
       </c>
       <c r="G19" s="1">
-        <v>14.72853946685791</v>
+        <v>14.72854232788086</v>
       </c>
       <c r="H19" s="1">
-        <v>208.2978973388672</v>
+        <v>208.2979278564453</v>
       </c>
       <c r="I19" s="1">
-        <v>4.869265556335449</v>
+        <v>4.869266510009766</v>
       </c>
       <c r="J19" s="1">
-        <v>6.55859375</v>
+        <v>6.558595180511475</v>
       </c>
       <c r="K19" s="1">
-        <v>4.073074340820312</v>
+        <v>4.073074817657471</v>
       </c>
       <c r="L19" s="1">
-        <v>0.4784414768218994</v>
+        <v>0.4784415662288666</v>
       </c>
       <c r="M19" s="1">
-        <v>3.187527894973755</v>
+        <v>3.187528610229492</v>
       </c>
       <c r="N19" s="1">
-        <v>0.05709570646286011</v>
+        <v>0.057095717638731</v>
       </c>
       <c r="O19" s="1">
-        <v>1.618236422538757</v>
+        <v>1.618236780166626</v>
       </c>
       <c r="P19" s="1">
-        <v>7.21348762512207</v>
+        <v>7.213489055633545</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.729791164398193</v>
+        <v>5.729792594909668</v>
       </c>
       <c r="R19" s="1">
-        <v>19.62877464294434</v>
+        <v>19.62878036499023</v>
       </c>
       <c r="S19" s="1">
-        <v>41.78483200073242</v>
+        <v>41.78483963012695</v>
       </c>
       <c r="T19" s="1">
-        <v>1.201687455177307</v>
+        <v>1.201687693595886</v>
       </c>
       <c r="U19" s="1">
-        <v>1.819880247116089</v>
+        <v>1.819880604743958</v>
       </c>
       <c r="V19" s="1">
-        <v>1.137088060379028</v>
+        <v>1.137088298797607</v>
       </c>
       <c r="W19" s="1">
-        <v>0.8749950528144836</v>
+        <v>0.874995231628418</v>
       </c>
       <c r="X19" s="1">
-        <v>0.1523854434490204</v>
+        <v>0.1523854732513428</v>
       </c>
       <c r="Y19" s="1">
-        <v>3.408267498016357</v>
+        <v>3.408268213272095</v>
       </c>
       <c r="Z19" s="1">
-        <v>2.36214542388916</v>
+        <v>2.362145900726318</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.24763107299805</v>
+        <v>17.24763298034668</v>
       </c>
       <c r="AB19" s="1">
-        <v>4.86150598526001</v>
+        <v>4.861506938934326</v>
       </c>
       <c r="AC19" s="1">
-        <v>10.27647018432617</v>
+        <v>10.2764720916748</v>
       </c>
       <c r="AD19" s="1">
-        <v>5.20274019241333</v>
+        <v>5.202741146087646</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>375.4941711425781</v>
+        <v>375.4942016601562</v>
       </c>
       <c r="AG19" s="1">
-        <v>37.36109924316406</v>
+        <v>37.36110687255859</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.7724300622940063</v>
+        <v>0.7724302411079407</v>
       </c>
       <c r="AI19" s="1">
-        <v>1.054555177688599</v>
+        <v>1.054555416107178</v>
       </c>
       <c r="AJ19" s="1">
-        <v>37.22443389892578</v>
+        <v>37.22444152832031</v>
       </c>
       <c r="AK19" s="1">
-        <v>76.41251838207245</v>
+        <v>76.41253405809402</v>
       </c>
       <c r="AL19" s="1">
-        <v>451.9066895246506</v>
+        <v>451.9067357182503</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -67441,115 +67441,115 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>22.4154802543344</v>
+        <v>22.41548034374136</v>
       </c>
       <c r="C32" s="1">
-        <v>28.00478075537831</v>
+        <v>28.00478099379689</v>
       </c>
       <c r="D32" s="1">
-        <v>10.86250367190223</v>
+        <v>10.86250438715797</v>
       </c>
       <c r="E32" s="1">
-        <v>40.28591904323548</v>
+        <v>40.28591975849122</v>
       </c>
       <c r="F32" s="1">
-        <v>1.276025860985101</v>
+        <v>1.276025883336843</v>
       </c>
       <c r="G32" s="1">
-        <v>94.28683565370739</v>
+        <v>94.28683851473033</v>
       </c>
       <c r="H32" s="1">
-        <v>558.6981110274792</v>
+        <v>558.6981415450573</v>
       </c>
       <c r="I32" s="1">
-        <v>55.26664871004323</v>
+        <v>55.26664966371754</v>
       </c>
       <c r="J32" s="1">
-        <v>30.83260816382244</v>
+        <v>30.83260959433392</v>
       </c>
       <c r="K32" s="1">
-        <v>48.6562858572579</v>
+        <v>48.65628633409506</v>
       </c>
       <c r="L32" s="1">
-        <v>7.453288295073435</v>
+        <v>7.453288384480402</v>
       </c>
       <c r="M32" s="1">
-        <v>42.69377923467255</v>
+        <v>42.69377994992828</v>
       </c>
       <c r="N32" s="1">
-        <v>1.487587503885152</v>
+        <v>1.487587515061023</v>
       </c>
       <c r="O32" s="1">
-        <v>30.24005379540904</v>
+        <v>30.24005415303691</v>
       </c>
       <c r="P32" s="1">
-        <v>91.75959242479439</v>
+        <v>91.75959385530587</v>
       </c>
       <c r="Q32" s="1">
-        <v>112.2885534795932</v>
+        <v>112.2885549101047</v>
       </c>
       <c r="R32" s="1">
-        <v>71.7376153258956</v>
+        <v>71.7376210479415</v>
       </c>
       <c r="S32" s="1">
-        <v>92.58998388812518</v>
+        <v>92.58999151751971</v>
       </c>
       <c r="T32" s="1">
-        <v>33.95344216859667</v>
+        <v>33.95344240701525</v>
       </c>
       <c r="U32" s="1">
-        <v>27.7730052662082</v>
+        <v>27.77300562383607</v>
       </c>
       <c r="V32" s="1">
-        <v>23.15760075952858</v>
+        <v>23.15760099794716</v>
       </c>
       <c r="W32" s="1">
-        <v>28.09294149145717</v>
+        <v>28.0929416702711</v>
       </c>
       <c r="X32" s="1">
-        <v>22.71165407041553</v>
+        <v>22.71165410021786</v>
       </c>
       <c r="Y32" s="1">
-        <v>44.39394541565252</v>
+        <v>44.39394613090826</v>
       </c>
       <c r="Z32" s="1">
-        <v>18.55886497153551</v>
+        <v>18.55886544837267</v>
       </c>
       <c r="AA32" s="1">
-        <v>84.75280360149918</v>
+        <v>84.75280550884781</v>
       </c>
       <c r="AB32" s="1">
-        <v>25.46038487419719</v>
+        <v>25.46038582787151</v>
       </c>
       <c r="AC32" s="1">
-        <v>61.8806317070846</v>
+        <v>61.88063361443324</v>
       </c>
       <c r="AD32" s="1">
-        <v>29.16514510553316</v>
+        <v>29.16514605920747</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1740.736076116562</v>
+        <v>1740.73610663414</v>
       </c>
       <c r="AG32" s="1">
-        <v>615.8047904968262</v>
+        <v>615.8047981262207</v>
       </c>
       <c r="AH32" s="1">
-        <v>163.5202835910022</v>
+        <v>163.5202837698162</v>
       </c>
       <c r="AI32" s="1">
-        <v>113.8087605386972</v>
+        <v>113.8087607771158</v>
       </c>
       <c r="AJ32" s="1">
-        <v>711.8104583397508</v>
+        <v>711.8104659691453</v>
       </c>
       <c r="AK32" s="1">
-        <v>1604.944292966276</v>
+        <v>1604.944308642298</v>
       </c>
       <c r="AL32" s="1">
-        <v>3345.680369082838</v>
+        <v>3345.680415276438</v>
       </c>
     </row>
   </sheetData>
@@ -69658,115 +69658,115 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.5113650560379028</v>
+        <v>0.511365532875061</v>
       </c>
       <c r="C19" s="1">
-        <v>1.931528568267822</v>
+        <v>1.931530475616455</v>
       </c>
       <c r="D19" s="1">
-        <v>0.7908632755279541</v>
+        <v>0.7908639907836914</v>
       </c>
       <c r="E19" s="1">
-        <v>2.855382680892944</v>
+        <v>2.855385541915894</v>
       </c>
       <c r="F19" s="1">
-        <v>0.6401554942131042</v>
+        <v>0.6401561498641968</v>
       </c>
       <c r="G19" s="1">
-        <v>17.94746017456055</v>
+        <v>17.94747734069824</v>
       </c>
       <c r="H19" s="1">
-        <v>4.219274044036865</v>
+        <v>4.219278335571289</v>
       </c>
       <c r="I19" s="1">
-        <v>1.970120668411255</v>
+        <v>1.970122575759888</v>
       </c>
       <c r="J19" s="1">
-        <v>3.97411060333252</v>
+        <v>3.974114418029785</v>
       </c>
       <c r="K19" s="1">
-        <v>1.273015022277832</v>
+        <v>1.273016214370728</v>
       </c>
       <c r="L19" s="1">
-        <v>0.6582391858100891</v>
+        <v>0.6582397818565369</v>
       </c>
       <c r="M19" s="1">
-        <v>2.179003477096558</v>
+        <v>2.17900562286377</v>
       </c>
       <c r="N19" s="1">
-        <v>0.137681633234024</v>
+        <v>0.1376817673444748</v>
       </c>
       <c r="O19" s="1">
-        <v>1.25970447063446</v>
+        <v>1.259705781936646</v>
       </c>
       <c r="P19" s="1">
-        <v>2.333787679672241</v>
+        <v>2.333789825439453</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.554156303405762</v>
+        <v>3.554159641265869</v>
       </c>
       <c r="R19" s="1">
-        <v>13.62030410766602</v>
+        <v>13.62031555175781</v>
       </c>
       <c r="S19" s="1">
-        <v>23.24528312683105</v>
+        <v>23.24530601501465</v>
       </c>
       <c r="T19" s="1">
-        <v>0.8094769716262817</v>
+        <v>0.809477686882019</v>
       </c>
       <c r="U19" s="1">
-        <v>1.004807472229004</v>
+        <v>1.00480842590332</v>
       </c>
       <c r="V19" s="1">
-        <v>0.9172805547714233</v>
+        <v>0.9172813892364502</v>
       </c>
       <c r="W19" s="1">
-        <v>0.6336990594863892</v>
+        <v>0.6336997151374817</v>
       </c>
       <c r="X19" s="1">
-        <v>0.1226158887147903</v>
+        <v>0.1226160079240799</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.878512144088745</v>
+        <v>1.878514051437378</v>
       </c>
       <c r="Z19" s="1">
-        <v>2.075997114181519</v>
+        <v>2.075999021530151</v>
       </c>
       <c r="AA19" s="1">
-        <v>10.99767017364502</v>
+        <v>10.9976806640625</v>
       </c>
       <c r="AB19" s="1">
-        <v>3.847700595855713</v>
+        <v>3.84770393371582</v>
       </c>
       <c r="AC19" s="1">
-        <v>8.516043663024902</v>
+        <v>8.51605224609375</v>
       </c>
       <c r="AD19" s="1">
-        <v>4.454193592071533</v>
+        <v>4.454197883605957</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>118.3594360351562</v>
+        <v>118.3595428466797</v>
       </c>
       <c r="AG19" s="1">
-        <v>30.36487579345703</v>
+        <v>30.36490249633789</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.3955785036087036</v>
+        <v>0.3955788612365723</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.8746798038482666</v>
+        <v>0.8746806383132935</v>
       </c>
       <c r="AJ19" s="1">
-        <v>8.095717430114746</v>
+        <v>8.095725059509277</v>
       </c>
       <c r="AK19" s="1">
-        <v>39.73085153102875</v>
+        <v>39.73088705539703</v>
       </c>
       <c r="AL19" s="1">
-        <v>158.090287566185</v>
+        <v>158.0904299020767</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -71166,115 +71166,115 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>46.36996160226408</v>
+        <v>46.36996207910124</v>
       </c>
       <c r="C32" s="1">
-        <v>43.11339954612777</v>
+        <v>43.1134014534764</v>
       </c>
       <c r="D32" s="1">
-        <v>3.46142583306937</v>
+        <v>3.461426548325107</v>
       </c>
       <c r="E32" s="1">
-        <v>39.6135782119818</v>
+        <v>39.61358107300475</v>
       </c>
       <c r="F32" s="1">
-        <v>7.807322669948917</v>
+        <v>7.807323325600009</v>
       </c>
       <c r="G32" s="1">
-        <v>91.08502793312073</v>
+        <v>91.08504509925842</v>
       </c>
       <c r="H32" s="1">
-        <v>19.69448480661958</v>
+        <v>19.69448909815401</v>
       </c>
       <c r="I32" s="1">
-        <v>32.06824488398706</v>
+        <v>32.0682467913357</v>
       </c>
       <c r="J32" s="1">
-        <v>26.39092895807698</v>
+        <v>26.39093277277425</v>
       </c>
       <c r="K32" s="1">
-        <v>23.93915926160116</v>
+        <v>23.93916045369406</v>
       </c>
       <c r="L32" s="1">
-        <v>14.02427487874229</v>
+        <v>14.02427547478874</v>
       </c>
       <c r="M32" s="1">
-        <v>38.4788796925277</v>
+        <v>38.47888183829491</v>
       </c>
       <c r="N32" s="1">
-        <v>4.883977995574242</v>
+        <v>4.883978129684692</v>
       </c>
       <c r="O32" s="1">
-        <v>30.22748489037622</v>
+        <v>30.2274862016784</v>
       </c>
       <c r="P32" s="1">
-        <v>37.6415180132426</v>
+        <v>37.64152015900981</v>
       </c>
       <c r="Q32" s="1">
-        <v>100.8668381599709</v>
+        <v>100.866841497831</v>
       </c>
       <c r="R32" s="1">
-        <v>70.08275560359471</v>
+        <v>70.0827670476865</v>
       </c>
       <c r="S32" s="1">
-        <v>64.12093978644248</v>
+        <v>64.12096267462607</v>
       </c>
       <c r="T32" s="1">
-        <v>33.02006102241285</v>
+        <v>33.02006173766858</v>
       </c>
       <c r="U32" s="1">
-        <v>23.37199135916308</v>
+        <v>23.37199231283739</v>
       </c>
       <c r="V32" s="1">
-        <v>26.30955298338085</v>
+        <v>26.30955381784588</v>
       </c>
       <c r="W32" s="1">
-        <v>31.3870001345058</v>
+        <v>31.38700079015689</v>
       </c>
       <c r="X32" s="1">
-        <v>30.74151629852713</v>
+        <v>30.74151641773642</v>
       </c>
       <c r="Y32" s="1">
-        <v>33.64172351924071</v>
+        <v>33.64172542658935</v>
       </c>
       <c r="Z32" s="1">
-        <v>22.8503188706236</v>
+        <v>22.85032077797223</v>
       </c>
       <c r="AA32" s="1">
-        <v>75.19358763021592</v>
+        <v>75.1935981206334</v>
       </c>
       <c r="AB32" s="1">
-        <v>30.50567092391429</v>
+        <v>30.5056742617744</v>
       </c>
       <c r="AC32" s="1">
-        <v>74.11751186871606</v>
+        <v>74.11752045178491</v>
       </c>
       <c r="AD32" s="1">
-        <v>36.91340622604184</v>
+        <v>36.91341051757627</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1111.922548059374</v>
+        <v>1111.922654870898</v>
       </c>
       <c r="AG32" s="1">
-        <v>719.2946928143501</v>
+        <v>719.294719517231</v>
       </c>
       <c r="AH32" s="1">
-        <v>164.9682383313775</v>
+        <v>164.9682386890054</v>
       </c>
       <c r="AI32" s="1">
-        <v>258.4866500794888</v>
+        <v>258.4866509139538</v>
       </c>
       <c r="AJ32" s="1">
-        <v>245.1294532027096</v>
+        <v>245.1294608321041</v>
       </c>
       <c r="AK32" s="1">
-        <v>1387.879034427926</v>
+        <v>1387.879069952294</v>
       </c>
       <c r="AL32" s="1">
-        <v>2499.8015824873</v>
+        <v>2499.801724823192</v>
       </c>
     </row>
   </sheetData>
